--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="48">
   <si>
     <t>SiO2</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Temp</t>
   </si>
   <si>
+    <t>TotalAlkalis</t>
+  </si>
+  <si>
     <t>Label</t>
   </si>
   <si>
@@ -120,46 +123,46 @@
     <t>Ma57-3c.2</t>
   </si>
   <si>
-    <t>H2O_liq</t>
+    <t>H2O_liq_VESIcal</t>
   </si>
   <si>
-    <t>CO2_liq</t>
+    <t>CO2_liq_VESIcal</t>
   </si>
   <si>
-    <t>XH2O_fl</t>
+    <t>Temperature_C_VESIcal</t>
   </si>
   <si>
-    <t>XCO2_fl</t>
+    <t>Pressure_bars_VESIcal</t>
   </si>
   <si>
-    <t>FluidProportion_wtper</t>
+    <t>X_fluid_input_VESIcal</t>
   </si>
   <si>
-    <t>Temperature_C</t>
+    <t>Model</t>
   </si>
   <si>
-    <t>Pressure_bars</t>
+    <t>Warnings</t>
   </si>
   <si>
-    <t>X_fluid_input</t>
+    <t>MagmaSat</t>
   </si>
   <si>
-    <t>H2Ofluid_wtper</t>
+    <t>XH2O_fl_VESIcal</t>
   </si>
   <si>
-    <t>CO2fluid_wtper</t>
+    <t>XCO2_fl_VESIcal</t>
   </si>
   <si>
-    <t>FluidMass_grams</t>
+    <t>SaturationP_bars_VESIcal</t>
   </si>
   <si>
-    <t>SaturationPressure_bars</t>
+    <t>Dixon</t>
   </si>
   <si>
-    <t>FluidMassAtSaturation_grams</t>
+    <t>FluidMass_grams_VESIcal</t>
   </si>
   <si>
-    <t>FluidSystem_wtper</t>
+    <t>FluidSystem_wt_VESIcal</t>
   </si>
 </sst>
 </file>
@@ -517,15 +520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -581,10 +584,13 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>77.5</v>
@@ -640,10 +646,13 @@
       <c r="S2">
         <v>900</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>78.37</v>
@@ -699,10 +708,13 @@
       <c r="S3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>77.90000000000001</v>
@@ -758,10 +770,13 @@
       <c r="S4">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>78.27</v>
@@ -817,10 +832,13 @@
       <c r="S5">
         <v>950</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>78.27</v>
@@ -876,10 +894,13 @@
       <c r="S6">
         <v>1025</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>78.27</v>
@@ -935,10 +956,13 @@
       <c r="S7">
         <v>925</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>77.91</v>
@@ -994,10 +1018,13 @@
       <c r="S8">
         <v>862</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>8.219999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>77.91</v>
@@ -1053,10 +1080,13 @@
       <c r="S9">
         <v>770</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>8.219999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>77.92</v>
@@ -1112,10 +1142,13 @@
       <c r="S10">
         <v>855</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>8.309999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>77.92</v>
@@ -1171,10 +1204,13 @@
       <c r="S11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>8.309999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>77.68000000000001</v>
@@ -1230,10 +1266,13 @@
       <c r="S12">
         <v>1010</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>77.90000000000001</v>
@@ -1289,10 +1328,13 @@
       <c r="S13">
         <v>1012</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>8.309999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>77.65000000000001</v>
@@ -1348,10 +1390,13 @@
       <c r="S14">
         <v>885</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>77.65000000000001</v>
@@ -1406,6 +1451,9 @@
       </c>
       <c r="S15">
         <v>885</v>
+      </c>
+      <c r="T15">
+        <v>8.26</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1480,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>34</v>
@@ -1506,7 +1554,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>77.5</v>
@@ -1563,33 +1611,30 @@
         <v>900</v>
       </c>
       <c r="T2">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="U2">
         <v>2.38467166117618</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.0324544526387999</v>
       </c>
-      <c r="V2">
-        <v>0.499959608412517</v>
-      </c>
       <c r="W2">
-        <v>0.500040391587483</v>
+        <v>900</v>
       </c>
       <c r="X2">
-        <v>0.09159022643353304</v>
+        <v>1000</v>
       </c>
       <c r="Y2">
-        <v>900</v>
-      </c>
-      <c r="Z2">
-        <v>1000</v>
-      </c>
-      <c r="AA2">
         <v>0.5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>78.37</v>
@@ -1646,33 +1691,30 @@
         <v>800</v>
       </c>
       <c r="T3">
+        <v>7.94</v>
+      </c>
+      <c r="U3">
         <v>2.40406219723201</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0346021833695008</v>
       </c>
-      <c r="V3">
-        <v>0.500093726880753</v>
-      </c>
       <c r="W3">
-        <v>0.499906273119247</v>
+        <v>900</v>
       </c>
       <c r="X3">
-        <v>0.1210640654956492</v>
+        <v>1000</v>
       </c>
       <c r="Y3">
-        <v>900</v>
-      </c>
-      <c r="Z3">
-        <v>1000</v>
-      </c>
-      <c r="AA3">
         <v>0.5</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>77.90000000000001</v>
@@ -1729,33 +1771,30 @@
         <v>900</v>
       </c>
       <c r="T4">
+        <v>8.17</v>
+      </c>
+      <c r="U4">
         <v>2.40810476804243</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.0334318947581118</v>
       </c>
-      <c r="V4">
-        <v>0.500097377264052</v>
-      </c>
       <c r="W4">
-        <v>0.499902622735948</v>
+        <v>900</v>
       </c>
       <c r="X4">
-        <v>0.1136412504886247</v>
+        <v>1000</v>
       </c>
       <c r="Y4">
-        <v>900</v>
-      </c>
-      <c r="Z4">
-        <v>1000</v>
-      </c>
-      <c r="AA4">
         <v>0.5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>78.27</v>
@@ -1812,33 +1851,30 @@
         <v>950</v>
       </c>
       <c r="T5">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U5">
         <v>2.41248811296705</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.0336700103834782</v>
       </c>
-      <c r="V5">
-        <v>0.50009521508063</v>
-      </c>
       <c r="W5">
-        <v>0.49990478491937</v>
+        <v>900</v>
       </c>
       <c r="X5">
-        <v>0.09023109602509478</v>
+        <v>1000</v>
       </c>
       <c r="Y5">
-        <v>900</v>
-      </c>
-      <c r="Z5">
-        <v>1000</v>
-      </c>
-      <c r="AA5">
         <v>0.5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>78.27</v>
@@ -1895,33 +1931,30 @@
         <v>1025</v>
       </c>
       <c r="T6">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U6">
         <v>2.41248811296705</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.0336700103834782</v>
       </c>
-      <c r="V6">
-        <v>0.50009521508063</v>
-      </c>
       <c r="W6">
-        <v>0.49990478491937</v>
+        <v>900</v>
       </c>
       <c r="X6">
-        <v>0.09023109602509478</v>
+        <v>1000</v>
       </c>
       <c r="Y6">
-        <v>900</v>
-      </c>
-      <c r="Z6">
-        <v>1000</v>
-      </c>
-      <c r="AA6">
         <v>0.5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>78.27</v>
@@ -1978,33 +2011,30 @@
         <v>925</v>
       </c>
       <c r="T7">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U7">
         <v>2.41248811296705</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.0336700103834782</v>
       </c>
-      <c r="V7">
-        <v>0.50009521508063</v>
-      </c>
       <c r="W7">
-        <v>0.49990478491937</v>
+        <v>900</v>
       </c>
       <c r="X7">
-        <v>0.09023109602509478</v>
+        <v>1000</v>
       </c>
       <c r="Y7">
-        <v>900</v>
-      </c>
-      <c r="Z7">
-        <v>1000</v>
-      </c>
-      <c r="AA7">
         <v>0.5</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>77.91</v>
@@ -2061,33 +2091,30 @@
         <v>862</v>
       </c>
       <c r="T8">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U8">
         <v>2.40530048426232</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.0336121811181367</v>
       </c>
-      <c r="V8">
-        <v>0.500095164491156</v>
-      </c>
       <c r="W8">
-        <v>0.499904835508844</v>
+        <v>900</v>
       </c>
       <c r="X8">
-        <v>0.1158520582818254</v>
+        <v>1000</v>
       </c>
       <c r="Y8">
-        <v>900</v>
-      </c>
-      <c r="Z8">
-        <v>1000</v>
-      </c>
-      <c r="AA8">
         <v>0.5</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>77.91</v>
@@ -2144,33 +2171,30 @@
         <v>770</v>
       </c>
       <c r="T9">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U9">
         <v>2.40530048426232</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.0336121811181367</v>
       </c>
-      <c r="V9">
-        <v>0.500095164491156</v>
-      </c>
       <c r="W9">
-        <v>0.499904835508844</v>
+        <v>900</v>
       </c>
       <c r="X9">
-        <v>0.1158520582818254</v>
+        <v>1000</v>
       </c>
       <c r="Y9">
-        <v>900</v>
-      </c>
-      <c r="Z9">
-        <v>1000</v>
-      </c>
-      <c r="AA9">
         <v>0.5</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>77.92</v>
@@ -2227,33 +2251,30 @@
         <v>855</v>
       </c>
       <c r="T10">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U10">
         <v>2.41039428891969</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.0333929253529872</v>
       </c>
-      <c r="V10">
-        <v>0.500092974894318</v>
-      </c>
       <c r="W10">
-        <v>0.499907025105682</v>
+        <v>900</v>
       </c>
       <c r="X10">
-        <v>0.09734391254767974</v>
+        <v>1000</v>
       </c>
       <c r="Y10">
-        <v>900</v>
-      </c>
-      <c r="Z10">
-        <v>1000</v>
-      </c>
-      <c r="AA10">
         <v>0.5</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>77.92</v>
@@ -2310,33 +2331,30 @@
         <v>1000</v>
       </c>
       <c r="T11">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U11">
         <v>2.41039428891969</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.0333929253529872</v>
       </c>
-      <c r="V11">
-        <v>0.500092974894318</v>
-      </c>
       <c r="W11">
-        <v>0.499907025105682</v>
+        <v>900</v>
       </c>
       <c r="X11">
-        <v>0.09734391254767974</v>
+        <v>1000</v>
       </c>
       <c r="Y11">
-        <v>900</v>
-      </c>
-      <c r="Z11">
-        <v>1000</v>
-      </c>
-      <c r="AA11">
         <v>0.5</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>77.68000000000001</v>
@@ -2393,33 +2411,30 @@
         <v>1010</v>
       </c>
       <c r="T12">
+        <v>8.32</v>
+      </c>
+      <c r="U12">
         <v>2.40532750459036</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.0332047592239089</v>
       </c>
-      <c r="V12">
-        <v>0.500093088750879</v>
-      </c>
       <c r="W12">
-        <v>0.499906911249121</v>
+        <v>900</v>
       </c>
       <c r="X12">
-        <v>0.1150388689830135</v>
+        <v>1000</v>
       </c>
       <c r="Y12">
-        <v>900</v>
-      </c>
-      <c r="Z12">
-        <v>1000</v>
-      </c>
-      <c r="AA12">
         <v>0.5</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>77.90000000000001</v>
@@ -2476,33 +2491,30 @@
         <v>1012</v>
       </c>
       <c r="T13">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U13">
         <v>2.41115047405532</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.0333587573174688</v>
       </c>
-      <c r="V13">
-        <v>0.500098854859366</v>
-      </c>
       <c r="W13">
-        <v>0.499901145140634</v>
+        <v>900</v>
       </c>
       <c r="X13">
-        <v>0.09534437424779132</v>
+        <v>1000</v>
       </c>
       <c r="Y13">
-        <v>900</v>
-      </c>
-      <c r="Z13">
-        <v>1000</v>
-      </c>
-      <c r="AA13">
         <v>0.5</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>77.65000000000001</v>
@@ -2559,33 +2571,30 @@
         <v>885</v>
       </c>
       <c r="T14">
+        <v>8.26</v>
+      </c>
+      <c r="U14">
         <v>2.40091565061917</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.0332508911924868</v>
       </c>
-      <c r="V14">
-        <v>0.5000950981426709</v>
-      </c>
       <c r="W14">
-        <v>0.499904901857329</v>
+        <v>900</v>
       </c>
       <c r="X14">
-        <v>0.1306198419547037</v>
+        <v>1000</v>
       </c>
       <c r="Y14">
-        <v>900</v>
-      </c>
-      <c r="Z14">
-        <v>1000</v>
-      </c>
-      <c r="AA14">
         <v>0.5</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>77.65000000000001</v>
@@ -2642,28 +2651,25 @@
         <v>885</v>
       </c>
       <c r="T15">
+        <v>8.26</v>
+      </c>
+      <c r="U15">
         <v>2.40091565061917</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.0332508911924868</v>
       </c>
-      <c r="V15">
-        <v>0.5000950981426709</v>
-      </c>
       <c r="W15">
-        <v>0.499904901857329</v>
+        <v>900</v>
       </c>
       <c r="X15">
-        <v>0.1306198419547037</v>
+        <v>1000</v>
       </c>
       <c r="Y15">
-        <v>900</v>
-      </c>
-      <c r="Z15">
-        <v>1000</v>
-      </c>
-      <c r="AA15">
         <v>0.5</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2673,15 +2679,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2738,7 +2744,7 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>42</v>
@@ -2747,18 +2753,21 @@
         <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>77.5</v>
@@ -2815,27 +2824,27 @@
         <v>900</v>
       </c>
       <c r="T2">
-        <v>98.7473347420878</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="U2">
-        <v>1.25266525791224</v>
+        <v>0.994834052532463</v>
       </c>
       <c r="V2">
-        <v>3.98627505354882</v>
+        <v>0.00516594746753703</v>
       </c>
       <c r="W2">
-        <v>3.773809574504238</v>
+        <v>900</v>
       </c>
       <c r="X2">
-        <v>900</v>
-      </c>
-      <c r="Y2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>78.37</v>
@@ -2892,27 +2901,27 @@
         <v>800</v>
       </c>
       <c r="T3">
-        <v>99.79926249121191</v>
+        <v>7.94</v>
       </c>
       <c r="U3">
-        <v>0.200737508788073</v>
+        <v>0.999177315231492</v>
       </c>
       <c r="V3">
-        <v>2.48528057945777</v>
+        <v>0.000822684768507835</v>
       </c>
       <c r="W3">
-        <v>2.388429752974654</v>
+        <v>900</v>
       </c>
       <c r="X3">
-        <v>900</v>
-      </c>
-      <c r="Y3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>77.90000000000001</v>
@@ -2969,27 +2978,27 @@
         <v>900</v>
       </c>
       <c r="T4">
-        <v>99.83657311998719</v>
+        <v>8.17</v>
       </c>
       <c r="U4">
-        <v>0.163426880012801</v>
+        <v>0.999330373542509</v>
       </c>
       <c r="V4">
-        <v>3.05413739178216</v>
+        <v>0.000669626457490963</v>
       </c>
       <c r="W4">
-        <v>2.921361511102545</v>
+        <v>900</v>
       </c>
       <c r="X4">
-        <v>900</v>
-      </c>
-      <c r="Y4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>78.27</v>
@@ -3046,27 +3055,27 @@
         <v>950</v>
       </c>
       <c r="T5">
-        <v>99.8270178497112</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U5">
-        <v>0.172982150288827</v>
+        <v>0.999291181666883</v>
       </c>
       <c r="V5">
-        <v>2.63415929685609</v>
+        <v>0.000708818333116399</v>
       </c>
       <c r="W5">
-        <v>2.527392668442137</v>
+        <v>900</v>
       </c>
       <c r="X5">
-        <v>900</v>
-      </c>
-      <c r="Y5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Y5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>78.27</v>
@@ -3123,27 +3132,27 @@
         <v>1025</v>
       </c>
       <c r="T6">
-        <v>99.8169837870807</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U6">
-        <v>0.183016212919272</v>
+        <v>0.9992500212105</v>
       </c>
       <c r="V6">
-        <v>2.4249853937544</v>
+        <v>0.000749978789499611</v>
       </c>
       <c r="W6">
-        <v>2.33137679755465</v>
+        <v>900</v>
       </c>
       <c r="X6">
-        <v>900</v>
-      </c>
-      <c r="Y6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Y6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>78.27</v>
@@ -3200,27 +3209,27 @@
         <v>925</v>
       </c>
       <c r="T7">
-        <v>99.79855419533639</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="U7">
-        <v>0.201445804663611</v>
+        <v>0.999174408956586</v>
       </c>
       <c r="V7">
-        <v>2.30510007425353</v>
+        <v>0.000825591043414316</v>
       </c>
       <c r="W7">
-        <v>2.218678044788057</v>
+        <v>900</v>
       </c>
       <c r="X7">
-        <v>900</v>
-      </c>
-      <c r="Y7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Y7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>77.91</v>
@@ -3277,27 +3286,27 @@
         <v>862</v>
       </c>
       <c r="T8">
-        <v>99.85133797281421</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="U8">
-        <v>0.148662027185749</v>
+        <v>0.999390924323617</v>
       </c>
       <c r="V8">
-        <v>3.06598133887498</v>
+        <v>0.000609075676383396</v>
       </c>
       <c r="W8">
-        <v>2.929814998830278</v>
+        <v>900</v>
       </c>
       <c r="X8">
-        <v>900</v>
-      </c>
-      <c r="Y8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Y8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>77.91</v>
@@ -3354,27 +3363,27 @@
         <v>770</v>
       </c>
       <c r="T9">
-        <v>99.842616688565</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="U9">
-        <v>0.157383311435004</v>
+        <v>0.999355159544143</v>
       </c>
       <c r="V9">
-        <v>2.82619763685745</v>
+        <v>0.000644840455856864</v>
       </c>
       <c r="W9">
-        <v>2.706884101837349</v>
+        <v>900</v>
       </c>
       <c r="X9">
-        <v>900</v>
-      </c>
-      <c r="Y9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Y9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>77.92</v>
@@ -3431,27 +3440,27 @@
         <v>855</v>
       </c>
       <c r="T10">
-        <v>99.83152972245909</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="U10">
-        <v>0.1684702775409</v>
+        <v>0.999309688106082</v>
       </c>
       <c r="V10">
-        <v>2.70489636095784</v>
+        <v>0.000690311893918203</v>
       </c>
       <c r="W10">
-        <v>2.593460539037934</v>
+        <v>900</v>
       </c>
       <c r="X10">
-        <v>900</v>
-      </c>
-      <c r="Y10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>77.92</v>
@@ -3508,27 +3517,27 @@
         <v>1000</v>
       </c>
       <c r="T11">
-        <v>99.83257599550529</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="U11">
-        <v>0.167424004494659</v>
+        <v>0.999313979484252</v>
       </c>
       <c r="V11">
-        <v>2.65137231345626</v>
+        <v>0.000686020515748279</v>
       </c>
       <c r="W11">
-        <v>2.543446732772756</v>
+        <v>900</v>
       </c>
       <c r="X11">
-        <v>900</v>
-      </c>
-      <c r="Y11">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>77.68000000000001</v>
@@ -3585,27 +3594,27 @@
         <v>1010</v>
       </c>
       <c r="T12">
-        <v>99.83892001206689</v>
+        <v>8.32</v>
       </c>
       <c r="U12">
-        <v>0.161079987933057</v>
+        <v>0.999339998872561</v>
       </c>
       <c r="V12">
-        <v>2.88417375507516</v>
+        <v>0.000660001127438955</v>
       </c>
       <c r="W12">
-        <v>2.760645318652506</v>
+        <v>900</v>
       </c>
       <c r="X12">
-        <v>900</v>
-      </c>
-      <c r="Y12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>77.90000000000001</v>
@@ -3662,27 +3671,27 @@
         <v>1012</v>
       </c>
       <c r="T13">
-        <v>99.7919994054446</v>
+        <v>8.309999999999999</v>
       </c>
       <c r="U13">
-        <v>0.208000594555374</v>
+        <v>0.999147512231242</v>
       </c>
       <c r="V13">
-        <v>2.13310865294915</v>
+        <v>0.000852487768757992</v>
       </c>
       <c r="W13">
-        <v>2.056655487719057</v>
+        <v>900</v>
       </c>
       <c r="X13">
-        <v>900</v>
-      </c>
-      <c r="Y13">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>77.65000000000001</v>
@@ -3739,27 +3748,27 @@
         <v>885</v>
       </c>
       <c r="T14">
-        <v>99.838182362617</v>
+        <v>8.26</v>
       </c>
       <c r="U14">
-        <v>0.161817637383005</v>
+        <v>0.999336973572877</v>
       </c>
       <c r="V14">
-        <v>2.87099380715274</v>
+        <v>0.000663026427122747</v>
       </c>
       <c r="W14">
-        <v>2.748463790084842</v>
+        <v>900</v>
       </c>
       <c r="X14">
-        <v>900</v>
-      </c>
-      <c r="Y14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>77.65000000000001</v>
@@ -3816,22 +3825,22 @@
         <v>885</v>
       </c>
       <c r="T15">
-        <v>99.82896439160329</v>
+        <v>8.26</v>
       </c>
       <c r="U15">
-        <v>0.171035608396708</v>
+        <v>0.999299165958014</v>
       </c>
       <c r="V15">
-        <v>2.71021920390812</v>
+        <v>0.000700834041985905</v>
       </c>
       <c r="W15">
-        <v>2.598551255412541</v>
+        <v>900</v>
       </c>
       <c r="X15">
-        <v>900</v>
-      </c>
-      <c r="Y15">
         <v>200</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3840,2252 +3849,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>77.5</v>
-      </c>
-      <c r="C2">
-        <v>0.08</v>
-      </c>
-      <c r="D2">
-        <v>12.5</v>
-      </c>
-      <c r="E2">
-        <v>0.207</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.473</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.03</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.43</v>
-      </c>
-      <c r="M2">
-        <v>3.98</v>
-      </c>
-      <c r="N2">
-        <v>4.88</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>5.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.05</v>
-      </c>
-      <c r="R2">
-        <v>500</v>
-      </c>
-      <c r="S2">
-        <v>900</v>
-      </c>
-      <c r="T2">
-        <v>98.2428645985901</v>
-      </c>
-      <c r="U2">
-        <v>1.75713540140991</v>
-      </c>
-      <c r="V2">
-        <v>2.83140423204947</v>
-      </c>
-      <c r="W2">
-        <v>2.6804925040703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>78.37</v>
-      </c>
-      <c r="C3">
-        <v>0.13</v>
-      </c>
-      <c r="D3">
-        <v>11.94</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.99</v>
-      </c>
-      <c r="H3">
-        <v>0.04</v>
-      </c>
-      <c r="I3">
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.53</v>
-      </c>
-      <c r="M3">
-        <v>3.8</v>
-      </c>
-      <c r="N3">
-        <v>4.14</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>4.06</v>
-      </c>
-      <c r="Q3">
-        <v>0.005</v>
-      </c>
-      <c r="R3">
-        <v>600</v>
-      </c>
-      <c r="S3">
-        <v>800</v>
-      </c>
-      <c r="T3">
-        <v>99.4769876984714</v>
-      </c>
-      <c r="U3">
-        <v>0.523012301528611</v>
-      </c>
-      <c r="V3">
-        <v>0.937994643151207</v>
-      </c>
-      <c r="W3">
-        <v>0.9014412023941233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.08</v>
-      </c>
-      <c r="D4">
-        <v>12.15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.95</v>
-      </c>
-      <c r="H4">
-        <v>0.05</v>
-      </c>
-      <c r="I4">
-        <v>0.06</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.55</v>
-      </c>
-      <c r="M4">
-        <v>4.05</v>
-      </c>
-      <c r="N4">
-        <v>4.12</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>4.63</v>
-      </c>
-      <c r="Q4">
-        <v>0.005</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
-      </c>
-      <c r="S4">
-        <v>900</v>
-      </c>
-      <c r="T4">
-        <v>99.87230412284239</v>
-      </c>
-      <c r="U4">
-        <v>0.12769587715756</v>
-      </c>
-      <c r="V4">
-        <v>3.91430666866671</v>
-      </c>
-      <c r="W4">
-        <v>3.744135701053824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>78.27</v>
-      </c>
-      <c r="C5">
-        <v>0.0298</v>
-      </c>
-      <c r="D5">
-        <v>12.02</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.9828</v>
-      </c>
-      <c r="H5">
-        <v>0.0336</v>
-      </c>
-      <c r="I5">
-        <v>0.0515</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.4772</v>
-      </c>
-      <c r="M5">
-        <v>4.05</v>
-      </c>
-      <c r="N5">
-        <v>4.09</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>4.214912406486871</v>
-      </c>
-      <c r="Q5">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R5">
-        <v>250</v>
-      </c>
-      <c r="S5">
-        <v>950</v>
-      </c>
-      <c r="T5">
-        <v>99.81213328825631</v>
-      </c>
-      <c r="U5">
-        <v>0.187866711743702</v>
-      </c>
-      <c r="V5">
-        <v>2.42343484142665</v>
-      </c>
-      <c r="W5">
-        <v>2.325209207347188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>78.27</v>
-      </c>
-      <c r="C6">
-        <v>0.0298</v>
-      </c>
-      <c r="D6">
-        <v>12.02</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.9828</v>
-      </c>
-      <c r="H6">
-        <v>0.0336</v>
-      </c>
-      <c r="I6">
-        <v>0.0515</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.4772</v>
-      </c>
-      <c r="M6">
-        <v>4.05</v>
-      </c>
-      <c r="N6">
-        <v>4.09</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4.005815792937756</v>
-      </c>
-      <c r="Q6">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R6">
-        <v>500</v>
-      </c>
-      <c r="S6">
-        <v>1025</v>
-      </c>
-      <c r="T6">
-        <v>99.66241540560701</v>
-      </c>
-      <c r="U6">
-        <v>0.337584594392971</v>
-      </c>
-      <c r="V6">
-        <v>1.3024507121696</v>
-      </c>
-      <c r="W6">
-        <v>1.252173880358746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>78.27</v>
-      </c>
-      <c r="C7">
-        <v>0.0298</v>
-      </c>
-      <c r="D7">
-        <v>12.02</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.9828</v>
-      </c>
-      <c r="H7">
-        <v>0.0336</v>
-      </c>
-      <c r="I7">
-        <v>0.0515</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.4772</v>
-      </c>
-      <c r="M7">
-        <v>4.05</v>
-      </c>
-      <c r="N7">
-        <v>4.09</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>3.885649340729607</v>
-      </c>
-      <c r="Q7">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R7">
-        <v>5000</v>
-      </c>
-      <c r="S7">
-        <v>925</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>77.91</v>
-      </c>
-      <c r="C8">
-        <v>0.0984</v>
-      </c>
-      <c r="D8">
-        <v>12.07</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.0556</v>
-      </c>
-      <c r="H8">
-        <v>0.0257</v>
-      </c>
-      <c r="I8">
-        <v>0.0999</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.5216</v>
-      </c>
-      <c r="M8">
-        <v>4.04</v>
-      </c>
-      <c r="N8">
-        <v>4.18</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4.641842879454773</v>
-      </c>
-      <c r="Q8">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R8">
-        <v>1000</v>
-      </c>
-      <c r="S8">
-        <v>862</v>
-      </c>
-      <c r="T8">
-        <v>98.8926498911365</v>
-      </c>
-      <c r="U8">
-        <v>1.10735010886346</v>
-      </c>
-      <c r="V8">
-        <v>0.379371819933058</v>
-      </c>
-      <c r="W8">
-        <v>0.3625231615340678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>77.91</v>
-      </c>
-      <c r="C9">
-        <v>0.0984</v>
-      </c>
-      <c r="D9">
-        <v>12.07</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1.0556</v>
-      </c>
-      <c r="H9">
-        <v>0.0257</v>
-      </c>
-      <c r="I9">
-        <v>0.0999</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.5216</v>
-      </c>
-      <c r="M9">
-        <v>4.04</v>
-      </c>
-      <c r="N9">
-        <v>4.18</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>4.402133475722628</v>
-      </c>
-      <c r="Q9">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R9">
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <v>770</v>
-      </c>
-      <c r="T9">
-        <v>99.86629875731199</v>
-      </c>
-      <c r="U9">
-        <v>0.13370124268802</v>
-      </c>
-      <c r="V9">
-        <v>3.32439564635887</v>
-      </c>
-      <c r="W9">
-        <v>3.184049694893993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>77.92</v>
-      </c>
-      <c r="C10">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="D10">
-        <v>12.11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1.002</v>
-      </c>
-      <c r="H10">
-        <v>0.0672</v>
-      </c>
-      <c r="I10">
-        <v>0.0546</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.5346</v>
-      </c>
-      <c r="M10">
-        <v>4.01</v>
-      </c>
-      <c r="N10">
-        <v>4.3</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>4.283934433487628</v>
-      </c>
-      <c r="Q10">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R10">
-        <v>1000</v>
-      </c>
-      <c r="S10">
-        <v>855</v>
-      </c>
-      <c r="T10">
-        <v>95.3463795522961</v>
-      </c>
-      <c r="U10">
-        <v>4.65362044770387</v>
-      </c>
-      <c r="V10">
-        <v>0.0648203208893582</v>
-      </c>
-      <c r="W10">
-        <v>0.06214986525206324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>77.92</v>
-      </c>
-      <c r="C11">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="D11">
-        <v>12.11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1.002</v>
-      </c>
-      <c r="H11">
-        <v>0.0672</v>
-      </c>
-      <c r="I11">
-        <v>0.0546</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.5346</v>
-      </c>
-      <c r="M11">
-        <v>4.01</v>
-      </c>
-      <c r="N11">
-        <v>4.3</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>4.230532593340062</v>
-      </c>
-      <c r="Q11">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R11">
-        <v>500</v>
-      </c>
-      <c r="S11">
-        <v>1000</v>
-      </c>
-      <c r="T11">
-        <v>99.71029850791039</v>
-      </c>
-      <c r="U11">
-        <v>0.28970149208961</v>
-      </c>
-      <c r="V11">
-        <v>1.52047063164036</v>
-      </c>
-      <c r="W11">
-        <v>1.458579031204173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="D12">
-        <v>12.27</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1.0272</v>
-      </c>
-      <c r="H12">
-        <v>0.06279999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.0342</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="M12">
-        <v>3.97</v>
-      </c>
-      <c r="N12">
-        <v>4.35</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>4.459767402959471</v>
-      </c>
-      <c r="Q12">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R12">
-        <v>5000</v>
-      </c>
-      <c r="S12">
-        <v>1010</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.0498</v>
-      </c>
-      <c r="D13">
-        <v>12.07</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1.0844</v>
-      </c>
-      <c r="H13">
-        <v>0.07480000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.0355</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.4759</v>
-      </c>
-      <c r="M13">
-        <v>4.1</v>
-      </c>
-      <c r="N13">
-        <v>4.21</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>3.71250604586519</v>
-      </c>
-      <c r="Q13">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R13">
-        <v>1000</v>
-      </c>
-      <c r="S13">
-        <v>1012</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.159</v>
-      </c>
-      <c r="D14">
-        <v>12.28</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.9769</v>
-      </c>
-      <c r="H14">
-        <v>0.0597</v>
-      </c>
-      <c r="I14">
-        <v>0.0577</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.5598</v>
-      </c>
-      <c r="M14">
-        <v>4.08</v>
-      </c>
-      <c r="N14">
-        <v>4.18</v>
-      </c>
-      <c r="O14">
-        <v>0.0064</v>
-      </c>
-      <c r="P14">
-        <v>4.443973024274503</v>
-      </c>
-      <c r="Q14">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R14">
-        <v>100</v>
-      </c>
-      <c r="S14">
-        <v>885</v>
-      </c>
-      <c r="T14">
-        <v>99.86275879315561</v>
-      </c>
-      <c r="U14">
-        <v>0.137241206844354</v>
-      </c>
-      <c r="V14">
-        <v>3.3888436337372</v>
-      </c>
-      <c r="W14">
-        <v>3.244212507314112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.159</v>
-      </c>
-      <c r="D15">
-        <v>12.28</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.9769</v>
-      </c>
-      <c r="H15">
-        <v>0.0597</v>
-      </c>
-      <c r="I15">
-        <v>0.0577</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.5598</v>
-      </c>
-      <c r="M15">
-        <v>4.08</v>
-      </c>
-      <c r="N15">
-        <v>4.18</v>
-      </c>
-      <c r="O15">
-        <v>0.0064</v>
-      </c>
-      <c r="P15">
-        <v>4.283171078254592</v>
-      </c>
-      <c r="Q15">
-        <v>0.00464452262096805</v>
-      </c>
-      <c r="R15">
-        <v>1000</v>
-      </c>
-      <c r="S15">
-        <v>885</v>
-      </c>
-      <c r="T15">
-        <v>96.03927291889219</v>
-      </c>
-      <c r="U15">
-        <v>3.96072708110784</v>
-      </c>
-      <c r="V15">
-        <v>0.0841551273542054</v>
-      </c>
-      <c r="W15">
-        <v>0.0806877213180156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2">
-        <v>77.5</v>
-      </c>
-      <c r="C2">
-        <v>0.08</v>
-      </c>
-      <c r="D2">
-        <v>12.5</v>
-      </c>
-      <c r="E2">
-        <v>0.207</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.473</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.03</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.43</v>
-      </c>
-      <c r="M2">
-        <v>3.98</v>
-      </c>
-      <c r="N2">
-        <v>4.88</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>5.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.05</v>
-      </c>
-      <c r="R2">
-        <v>500</v>
-      </c>
-      <c r="S2">
-        <v>900</v>
-      </c>
-      <c r="T2">
-        <v>2310</v>
-      </c>
-      <c r="U2">
-        <v>0.000848244837552148</v>
-      </c>
-      <c r="V2">
-        <v>57.5576411433712</v>
-      </c>
-      <c r="W2">
-        <v>42.4423588566288</v>
-      </c>
-      <c r="X2">
-        <v>0.0008030340221074918</v>
-      </c>
-      <c r="Y2">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>78.37</v>
-      </c>
-      <c r="C3">
-        <v>0.13</v>
-      </c>
-      <c r="D3">
-        <v>11.94</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.99</v>
-      </c>
-      <c r="H3">
-        <v>0.04</v>
-      </c>
-      <c r="I3">
-        <v>0.05</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.53</v>
-      </c>
-      <c r="M3">
-        <v>3.8</v>
-      </c>
-      <c r="N3">
-        <v>4.14</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>4.06</v>
-      </c>
-      <c r="Q3">
-        <v>0.005</v>
-      </c>
-      <c r="R3">
-        <v>600</v>
-      </c>
-      <c r="S3">
-        <v>800</v>
-      </c>
-      <c r="T3">
-        <v>1010</v>
-      </c>
-      <c r="U3">
-        <v>0.001807937799363</v>
-      </c>
-      <c r="V3">
-        <v>87.0023212603533</v>
-      </c>
-      <c r="W3">
-        <v>12.9976787396467</v>
-      </c>
-      <c r="X3">
-        <v>0.001737482869024068</v>
-      </c>
-      <c r="Y3">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.08</v>
-      </c>
-      <c r="D4">
-        <v>12.15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.95</v>
-      </c>
-      <c r="H4">
-        <v>0.05</v>
-      </c>
-      <c r="I4">
-        <v>0.06</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.55</v>
-      </c>
-      <c r="M4">
-        <v>4.05</v>
-      </c>
-      <c r="N4">
-        <v>4.12</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>4.63</v>
-      </c>
-      <c r="Q4">
-        <v>0.005</v>
-      </c>
-      <c r="R4">
-        <v>50</v>
-      </c>
-      <c r="S4">
-        <v>900</v>
-      </c>
-      <c r="T4">
-        <v>1220</v>
-      </c>
-      <c r="U4">
-        <v>0.00316300231648288</v>
-      </c>
-      <c r="V4">
-        <v>89.5559919476817</v>
-      </c>
-      <c r="W4">
-        <v>10.4440080523183</v>
-      </c>
-      <c r="X4">
-        <v>0.003025493630955919</v>
-      </c>
-      <c r="Y4">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>78.27</v>
-      </c>
-      <c r="C5">
-        <v>0.0298</v>
-      </c>
-      <c r="D5">
-        <v>12.02</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.9828</v>
-      </c>
-      <c r="H5">
-        <v>0.0336</v>
-      </c>
-      <c r="I5">
-        <v>0.0515</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.4772</v>
-      </c>
-      <c r="M5">
-        <v>4.05</v>
-      </c>
-      <c r="N5">
-        <v>4.09</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>4.214912406486871</v>
-      </c>
-      <c r="Q5">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R5">
-        <v>250</v>
-      </c>
-      <c r="S5">
-        <v>950</v>
-      </c>
-      <c r="T5">
-        <v>1050</v>
-      </c>
-      <c r="U5">
-        <v>0.00415236350806112</v>
-      </c>
-      <c r="V5">
-        <v>88.9504709385195</v>
-      </c>
-      <c r="W5">
-        <v>11.0495290614805</v>
-      </c>
-      <c r="X5">
-        <v>0.003984061669886814</v>
-      </c>
-      <c r="Y5">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>78.27</v>
-      </c>
-      <c r="C6">
-        <v>0.0298</v>
-      </c>
-      <c r="D6">
-        <v>12.02</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.9828</v>
-      </c>
-      <c r="H6">
-        <v>0.0336</v>
-      </c>
-      <c r="I6">
-        <v>0.0515</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.4772</v>
-      </c>
-      <c r="M6">
-        <v>4.05</v>
-      </c>
-      <c r="N6">
-        <v>4.09</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4.005815792937756</v>
-      </c>
-      <c r="Q6">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R6">
-        <v>500</v>
-      </c>
-      <c r="S6">
-        <v>1025</v>
-      </c>
-      <c r="T6">
-        <v>980</v>
-      </c>
-      <c r="U6">
-        <v>0.000797395227120155</v>
-      </c>
-      <c r="V6">
-        <v>87.3546023795062</v>
-      </c>
-      <c r="W6">
-        <v>12.6453976204938</v>
-      </c>
-      <c r="X6">
-        <v>0.0007666144034420669</v>
-      </c>
-      <c r="Y6">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>78.27</v>
-      </c>
-      <c r="C7">
-        <v>0.0298</v>
-      </c>
-      <c r="D7">
-        <v>12.02</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.9828</v>
-      </c>
-      <c r="H7">
-        <v>0.0336</v>
-      </c>
-      <c r="I7">
-        <v>0.0515</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.4772</v>
-      </c>
-      <c r="M7">
-        <v>4.05</v>
-      </c>
-      <c r="N7">
-        <v>4.09</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>3.885649340729607</v>
-      </c>
-      <c r="Q7">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R7">
-        <v>5000</v>
-      </c>
-      <c r="S7">
-        <v>925</v>
-      </c>
-      <c r="T7">
-        <v>940</v>
-      </c>
-      <c r="U7">
-        <v>0.00118833152785373</v>
-      </c>
-      <c r="V7">
-        <v>86.3215386824094</v>
-      </c>
-      <c r="W7">
-        <v>13.6784613175906</v>
-      </c>
-      <c r="X7">
-        <v>0.001143779005617492</v>
-      </c>
-      <c r="Y7">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>77.91</v>
-      </c>
-      <c r="C8">
-        <v>0.0984</v>
-      </c>
-      <c r="D8">
-        <v>12.07</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1.0556</v>
-      </c>
-      <c r="H8">
-        <v>0.0257</v>
-      </c>
-      <c r="I8">
-        <v>0.0999</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.5216</v>
-      </c>
-      <c r="M8">
-        <v>4.04</v>
-      </c>
-      <c r="N8">
-        <v>4.18</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4.641842879454773</v>
-      </c>
-      <c r="Q8">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R8">
-        <v>1000</v>
-      </c>
-      <c r="S8">
-        <v>862</v>
-      </c>
-      <c r="T8">
-        <v>1220</v>
-      </c>
-      <c r="U8">
-        <v>0.00189651358551434</v>
-      </c>
-      <c r="V8">
-        <v>90.2260019892945</v>
-      </c>
-      <c r="W8">
-        <v>9.773998010705499</v>
-      </c>
-      <c r="X8">
-        <v>0.001812285638491259</v>
-      </c>
-      <c r="Y8">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>77.91</v>
-      </c>
-      <c r="C9">
-        <v>0.0984</v>
-      </c>
-      <c r="D9">
-        <v>12.07</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1.0556</v>
-      </c>
-      <c r="H9">
-        <v>0.0257</v>
-      </c>
-      <c r="I9">
-        <v>0.0999</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.5216</v>
-      </c>
-      <c r="M9">
-        <v>4.04</v>
-      </c>
-      <c r="N9">
-        <v>4.18</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>4.402133475722628</v>
-      </c>
-      <c r="Q9">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R9">
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <v>770</v>
-      </c>
-      <c r="T9">
-        <v>1130</v>
-      </c>
-      <c r="U9">
-        <v>0.000511275066972926</v>
-      </c>
-      <c r="V9">
-        <v>89.2109402676106</v>
-      </c>
-      <c r="W9">
-        <v>10.7890597323894</v>
-      </c>
-      <c r="X9">
-        <v>0.0004896905766270859</v>
-      </c>
-      <c r="Y9">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>77.92</v>
-      </c>
-      <c r="C10">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="D10">
-        <v>12.11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1.002</v>
-      </c>
-      <c r="H10">
-        <v>0.0672</v>
-      </c>
-      <c r="I10">
-        <v>0.0546</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.5346</v>
-      </c>
-      <c r="M10">
-        <v>4.01</v>
-      </c>
-      <c r="N10">
-        <v>4.3</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>4.283934433487628</v>
-      </c>
-      <c r="Q10">
-        <v>0.00456593199077859</v>
-      </c>
-      <c r="R10">
-        <v>1000</v>
-      </c>
-      <c r="S10">
-        <v>855</v>
-      </c>
-      <c r="T10">
-        <v>1080</v>
-      </c>
-      <c r="U10">
-        <v>0.00257655636262639</v>
-      </c>
-      <c r="V10">
-        <v>88.8200479723815</v>
-      </c>
-      <c r="W10">
-        <v>11.1799520276185</v>
-      </c>
-      <c r="X10">
-        <v>0.002470407868311949</v>
-      </c>
-      <c r="Y10">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>77.92</v>
-      </c>
-      <c r="C11">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="D11">
-        <v>12.11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1.002</v>
-      </c>
-      <c r="H11">
-        <v>0.0672</v>
-      </c>
-      <c r="I11">
-        <v>0.0546</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.5346</v>
-      </c>
-      <c r="M11">
-        <v>4.01</v>
-      </c>
-      <c r="N11">
-        <v>4.3</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>4.230532593340062</v>
-      </c>
-      <c r="Q11">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R11">
-        <v>500</v>
-      </c>
-      <c r="S11">
-        <v>1000</v>
-      </c>
-      <c r="T11">
-        <v>1060</v>
-      </c>
-      <c r="U11">
-        <v>0.00186562890479378</v>
-      </c>
-      <c r="V11">
-        <v>88.669368108759</v>
-      </c>
-      <c r="W11">
-        <v>11.330631891241</v>
-      </c>
-      <c r="X11">
-        <v>0.001789687445396345</v>
-      </c>
-      <c r="Y11">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="D12">
-        <v>12.27</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1.0272</v>
-      </c>
-      <c r="H12">
-        <v>0.06279999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.0342</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.6064000000000001</v>
-      </c>
-      <c r="M12">
-        <v>3.97</v>
-      </c>
-      <c r="N12">
-        <v>4.35</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>4.459767402959471</v>
-      </c>
-      <c r="Q12">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R12">
-        <v>5000</v>
-      </c>
-      <c r="S12">
-        <v>1010</v>
-      </c>
-      <c r="T12">
-        <v>1150</v>
-      </c>
-      <c r="U12">
-        <v>0.0029797307030188</v>
-      </c>
-      <c r="V12">
-        <v>89.4543704930789</v>
-      </c>
-      <c r="W12">
-        <v>10.5456295069211</v>
-      </c>
-      <c r="X12">
-        <v>0.002852109586552852</v>
-      </c>
-      <c r="Y12">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.0498</v>
-      </c>
-      <c r="D13">
-        <v>12.07</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1.0844</v>
-      </c>
-      <c r="H13">
-        <v>0.07480000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.0355</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.4759</v>
-      </c>
-      <c r="M13">
-        <v>4.1</v>
-      </c>
-      <c r="N13">
-        <v>4.21</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>3.71250604586519</v>
-      </c>
-      <c r="Q13">
-        <v>0.00444796342858406</v>
-      </c>
-      <c r="R13">
-        <v>1000</v>
-      </c>
-      <c r="S13">
-        <v>1012</v>
-      </c>
-      <c r="T13">
-        <v>880</v>
-      </c>
-      <c r="U13">
-        <v>0.000346151983473908</v>
-      </c>
-      <c r="V13">
-        <v>85.43410453868501</v>
-      </c>
-      <c r="W13">
-        <v>14.565895461315</v>
-      </c>
-      <c r="X13">
-        <v>0.0003337454824029655</v>
-      </c>
-      <c r="Y13">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.159</v>
-      </c>
-      <c r="D14">
-        <v>12.28</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.9769</v>
-      </c>
-      <c r="H14">
-        <v>0.0597</v>
-      </c>
-      <c r="I14">
-        <v>0.0577</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.5598</v>
-      </c>
-      <c r="M14">
-        <v>4.08</v>
-      </c>
-      <c r="N14">
-        <v>4.18</v>
-      </c>
-      <c r="O14">
-        <v>0.0064</v>
-      </c>
-      <c r="P14">
-        <v>4.443973024274503</v>
-      </c>
-      <c r="Q14">
-        <v>0.00465436710396932</v>
-      </c>
-      <c r="R14">
-        <v>100</v>
-      </c>
-      <c r="S14">
-        <v>885</v>
-      </c>
-      <c r="T14">
-        <v>1150</v>
-      </c>
-      <c r="U14">
-        <v>0.00190965176757361</v>
-      </c>
-      <c r="V14">
-        <v>89.21497845069111</v>
-      </c>
-      <c r="W14">
-        <v>10.7850215493088</v>
-      </c>
-      <c r="X14">
-        <v>0.001828150489830839</v>
-      </c>
-      <c r="Y14">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>77.65000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.159</v>
-      </c>
-      <c r="D15">
-        <v>12.28</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0.9769</v>
-      </c>
-      <c r="H15">
-        <v>0.0597</v>
-      </c>
-      <c r="I15">
-        <v>0.0577</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.5598</v>
-      </c>
-      <c r="M15">
-        <v>4.08</v>
-      </c>
-      <c r="N15">
-        <v>4.18</v>
-      </c>
-      <c r="O15">
-        <v>0.0064</v>
-      </c>
-      <c r="P15">
-        <v>4.283171078254592</v>
-      </c>
-      <c r="Q15">
-        <v>0.00464452262096805</v>
-      </c>
-      <c r="R15">
-        <v>1000</v>
-      </c>
-      <c r="S15">
-        <v>885</v>
-      </c>
-      <c r="T15">
-        <v>1090</v>
-      </c>
-      <c r="U15">
-        <v>0.00175567106236267</v>
-      </c>
-      <c r="V15">
-        <v>88.4966338026631</v>
-      </c>
-      <c r="W15">
-        <v>11.5033661973369</v>
-      </c>
-      <c r="X15">
-        <v>0.001683332933592717</v>
-      </c>
-      <c r="Y15">
-        <v>925</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X15"/>
   <sheetViews>
@@ -6095,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6152,24 +3915,2195 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>77.5</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2">
+        <v>12.5</v>
+      </c>
+      <c r="E2">
+        <v>0.207</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.473</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.03</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.43</v>
+      </c>
+      <c r="M2">
+        <v>3.98</v>
+      </c>
+      <c r="N2">
+        <v>4.88</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>5.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2">
+        <v>900</v>
+      </c>
+      <c r="T2">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.992731817132541</v>
+      </c>
+      <c r="V2">
+        <v>0.00726818286745877</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>78.37</v>
+      </c>
+      <c r="C3">
+        <v>0.13</v>
+      </c>
+      <c r="D3">
+        <v>11.94</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.99</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.53</v>
+      </c>
+      <c r="M3">
+        <v>3.8</v>
+      </c>
+      <c r="N3">
+        <v>4.14</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4.06</v>
+      </c>
+      <c r="Q3">
+        <v>0.005</v>
+      </c>
+      <c r="R3">
+        <v>600</v>
+      </c>
+      <c r="S3">
+        <v>800</v>
+      </c>
+      <c r="T3">
+        <v>7.94</v>
+      </c>
+      <c r="U3">
+        <v>0.997852440057398</v>
+      </c>
+      <c r="V3">
+        <v>0.00214755994260172</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>12.15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.55</v>
+      </c>
+      <c r="M4">
+        <v>4.05</v>
+      </c>
+      <c r="N4">
+        <v>4.12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4.63</v>
+      </c>
+      <c r="Q4">
+        <v>0.005</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>900</v>
+      </c>
+      <c r="T4">
+        <v>8.17</v>
+      </c>
+      <c r="U4">
+        <v>0.999476888514801</v>
+      </c>
+      <c r="V4">
+        <v>0.000523111485199227</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>78.27</v>
+      </c>
+      <c r="C5">
+        <v>0.0298</v>
+      </c>
+      <c r="D5">
+        <v>12.02</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.9828</v>
+      </c>
+      <c r="H5">
+        <v>0.0336</v>
+      </c>
+      <c r="I5">
+        <v>0.0515</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.4772</v>
+      </c>
+      <c r="M5">
+        <v>4.05</v>
+      </c>
+      <c r="N5">
+        <v>4.09</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4.214912406486871</v>
+      </c>
+      <c r="Q5">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R5">
+        <v>250</v>
+      </c>
+      <c r="S5">
+        <v>950</v>
+      </c>
+      <c r="T5">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.999230122359502</v>
+      </c>
+      <c r="V5">
+        <v>0.000769877640498114</v>
+      </c>
+      <c r="W5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>78.27</v>
+      </c>
+      <c r="C6">
+        <v>0.0298</v>
+      </c>
+      <c r="D6">
+        <v>12.02</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.9828</v>
+      </c>
+      <c r="H6">
+        <v>0.0336</v>
+      </c>
+      <c r="I6">
+        <v>0.0515</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.4772</v>
+      </c>
+      <c r="M6">
+        <v>4.05</v>
+      </c>
+      <c r="N6">
+        <v>4.09</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4.005815792937756</v>
+      </c>
+      <c r="Q6">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R6">
+        <v>500</v>
+      </c>
+      <c r="S6">
+        <v>1025</v>
+      </c>
+      <c r="T6">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.998615352765587</v>
+      </c>
+      <c r="V6">
+        <v>0.00138464723441286</v>
+      </c>
+      <c r="W6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>78.27</v>
+      </c>
+      <c r="C7">
+        <v>0.0298</v>
+      </c>
+      <c r="D7">
+        <v>12.02</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.9828</v>
+      </c>
+      <c r="H7">
+        <v>0.0336</v>
+      </c>
+      <c r="I7">
+        <v>0.0515</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.4772</v>
+      </c>
+      <c r="M7">
+        <v>4.05</v>
+      </c>
+      <c r="N7">
+        <v>4.09</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3.885649340729607</v>
+      </c>
+      <c r="Q7">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
+      </c>
+      <c r="S7">
+        <v>925</v>
+      </c>
+      <c r="T7">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>77.91</v>
+      </c>
+      <c r="C8">
+        <v>0.0984</v>
+      </c>
+      <c r="D8">
+        <v>12.07</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.0556</v>
+      </c>
+      <c r="H8">
+        <v>0.0257</v>
+      </c>
+      <c r="I8">
+        <v>0.0999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.5216</v>
+      </c>
+      <c r="M8">
+        <v>4.04</v>
+      </c>
+      <c r="N8">
+        <v>4.18</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.641842879454773</v>
+      </c>
+      <c r="Q8">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>862</v>
+      </c>
+      <c r="T8">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.995437272527174</v>
+      </c>
+      <c r="V8">
+        <v>0.00456272747282559</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>77.91</v>
+      </c>
+      <c r="C9">
+        <v>0.0984</v>
+      </c>
+      <c r="D9">
+        <v>12.07</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.0556</v>
+      </c>
+      <c r="H9">
+        <v>0.0257</v>
+      </c>
+      <c r="I9">
+        <v>0.0999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.5216</v>
+      </c>
+      <c r="M9">
+        <v>4.04</v>
+      </c>
+      <c r="N9">
+        <v>4.18</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>4.402133475722628</v>
+      </c>
+      <c r="Q9">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>770</v>
+      </c>
+      <c r="T9">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.999452267841243</v>
+      </c>
+      <c r="V9">
+        <v>0.000547732158756756</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>77.92</v>
+      </c>
+      <c r="C10">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>12.11</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.002</v>
+      </c>
+      <c r="H10">
+        <v>0.0672</v>
+      </c>
+      <c r="I10">
+        <v>0.0546</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.5346</v>
+      </c>
+      <c r="M10">
+        <v>4.01</v>
+      </c>
+      <c r="N10">
+        <v>4.3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.283934433487628</v>
+      </c>
+      <c r="Q10">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R10">
+        <v>1000</v>
+      </c>
+      <c r="S10">
+        <v>855</v>
+      </c>
+      <c r="T10">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.980412222508211</v>
+      </c>
+      <c r="V10">
+        <v>0.0195877774917894</v>
+      </c>
+      <c r="W10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>77.92</v>
+      </c>
+      <c r="C11">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>12.11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.002</v>
+      </c>
+      <c r="H11">
+        <v>0.0672</v>
+      </c>
+      <c r="I11">
+        <v>0.0546</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.5346</v>
+      </c>
+      <c r="M11">
+        <v>4.01</v>
+      </c>
+      <c r="N11">
+        <v>4.3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.230532593340062</v>
+      </c>
+      <c r="Q11">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R11">
+        <v>500</v>
+      </c>
+      <c r="S11">
+        <v>1000</v>
+      </c>
+      <c r="T11">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.998812088194602</v>
+      </c>
+      <c r="V11">
+        <v>0.00118791180539847</v>
+      </c>
+      <c r="W11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="D12">
+        <v>12.27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.0272</v>
+      </c>
+      <c r="H12">
+        <v>0.06279999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0342</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="M12">
+        <v>3.97</v>
+      </c>
+      <c r="N12">
+        <v>4.35</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4.459767402959471</v>
+      </c>
+      <c r="Q12">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R12">
+        <v>5000</v>
+      </c>
+      <c r="S12">
+        <v>1010</v>
+      </c>
+      <c r="T12">
+        <v>8.32</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.0498</v>
+      </c>
+      <c r="D13">
+        <v>12.07</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.0844</v>
+      </c>
+      <c r="H13">
+        <v>0.07480000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0355</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.4759</v>
+      </c>
+      <c r="M13">
+        <v>4.1</v>
+      </c>
+      <c r="N13">
+        <v>4.21</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>3.71250604586519</v>
+      </c>
+      <c r="Q13">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R13">
+        <v>1000</v>
+      </c>
+      <c r="S13">
+        <v>1012</v>
+      </c>
+      <c r="T13">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.159</v>
+      </c>
+      <c r="D14">
+        <v>12.28</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.9769</v>
+      </c>
+      <c r="H14">
+        <v>0.0597</v>
+      </c>
+      <c r="I14">
+        <v>0.0577</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.5598</v>
+      </c>
+      <c r="M14">
+        <v>4.08</v>
+      </c>
+      <c r="N14">
+        <v>4.18</v>
+      </c>
+      <c r="O14">
+        <v>0.0064</v>
+      </c>
+      <c r="P14">
+        <v>4.443973024274503</v>
+      </c>
+      <c r="Q14">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>885</v>
+      </c>
+      <c r="T14">
+        <v>8.26</v>
+      </c>
+      <c r="U14">
+        <v>0.999437753950405</v>
+      </c>
+      <c r="V14">
+        <v>0.000562246049594996</v>
+      </c>
+      <c r="W14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.159</v>
+      </c>
+      <c r="D15">
+        <v>12.28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.9769</v>
+      </c>
+      <c r="H15">
+        <v>0.0597</v>
+      </c>
+      <c r="I15">
+        <v>0.0577</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.5598</v>
+      </c>
+      <c r="M15">
+        <v>4.08</v>
+      </c>
+      <c r="N15">
+        <v>4.18</v>
+      </c>
+      <c r="O15">
+        <v>0.0064</v>
+      </c>
+      <c r="P15">
+        <v>4.283171078254592</v>
+      </c>
+      <c r="Q15">
+        <v>0.00464452262096805</v>
+      </c>
+      <c r="R15">
+        <v>1000</v>
+      </c>
+      <c r="S15">
+        <v>885</v>
+      </c>
+      <c r="T15">
+        <v>8.26</v>
+      </c>
+      <c r="U15">
+        <v>0.983398576722149</v>
+      </c>
+      <c r="V15">
+        <v>0.016601423277851</v>
+      </c>
+      <c r="W15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>77.5</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2">
+        <v>12.5</v>
+      </c>
+      <c r="E2">
+        <v>0.207</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.473</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.03</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.43</v>
+      </c>
+      <c r="M2">
+        <v>3.98</v>
+      </c>
+      <c r="N2">
+        <v>4.88</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>5.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.05</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2">
+        <v>900</v>
+      </c>
+      <c r="T2">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="U2">
+        <v>5044.478388470491</v>
+      </c>
+      <c r="V2">
+        <v>925</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>78.37</v>
+      </c>
+      <c r="C3">
+        <v>0.13</v>
+      </c>
+      <c r="D3">
+        <v>11.94</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.99</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.53</v>
+      </c>
+      <c r="M3">
+        <v>3.8</v>
+      </c>
+      <c r="N3">
+        <v>4.14</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>4.06</v>
+      </c>
+      <c r="Q3">
+        <v>0.005</v>
+      </c>
+      <c r="R3">
+        <v>600</v>
+      </c>
+      <c r="S3">
+        <v>800</v>
+      </c>
+      <c r="T3">
+        <v>7.94</v>
+      </c>
+      <c r="U3">
+        <v>2955.542996852434</v>
+      </c>
+      <c r="V3">
+        <v>925</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.08</v>
+      </c>
+      <c r="D4">
+        <v>12.15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.55</v>
+      </c>
+      <c r="M4">
+        <v>4.05</v>
+      </c>
+      <c r="N4">
+        <v>4.12</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>4.63</v>
+      </c>
+      <c r="Q4">
+        <v>0.005</v>
+      </c>
+      <c r="R4">
+        <v>50</v>
+      </c>
+      <c r="S4">
+        <v>900</v>
+      </c>
+      <c r="T4">
+        <v>8.17</v>
+      </c>
+      <c r="U4">
+        <v>3756.763696266899</v>
+      </c>
+      <c r="V4">
+        <v>925</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>78.27</v>
+      </c>
+      <c r="C5">
+        <v>0.0298</v>
+      </c>
+      <c r="D5">
+        <v>12.02</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.9828</v>
+      </c>
+      <c r="H5">
+        <v>0.0336</v>
+      </c>
+      <c r="I5">
+        <v>0.0515</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.4772</v>
+      </c>
+      <c r="M5">
+        <v>4.05</v>
+      </c>
+      <c r="N5">
+        <v>4.09</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4.214912406486871</v>
+      </c>
+      <c r="Q5">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R5">
+        <v>250</v>
+      </c>
+      <c r="S5">
+        <v>950</v>
+      </c>
+      <c r="T5">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U5">
+        <v>3173.061135431278</v>
+      </c>
+      <c r="V5">
+        <v>925</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>78.27</v>
+      </c>
+      <c r="C6">
+        <v>0.0298</v>
+      </c>
+      <c r="D6">
+        <v>12.02</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.9828</v>
+      </c>
+      <c r="H6">
+        <v>0.0336</v>
+      </c>
+      <c r="I6">
+        <v>0.0515</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.4772</v>
+      </c>
+      <c r="M6">
+        <v>4.05</v>
+      </c>
+      <c r="N6">
+        <v>4.09</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>4.005815792937756</v>
+      </c>
+      <c r="Q6">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R6">
+        <v>500</v>
+      </c>
+      <c r="S6">
+        <v>1025</v>
+      </c>
+      <c r="T6">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U6">
+        <v>2873.774000896149</v>
+      </c>
+      <c r="V6">
+        <v>925</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>78.27</v>
+      </c>
+      <c r="C7">
+        <v>0.0298</v>
+      </c>
+      <c r="D7">
+        <v>12.02</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.9828</v>
+      </c>
+      <c r="H7">
+        <v>0.0336</v>
+      </c>
+      <c r="I7">
+        <v>0.0515</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.4772</v>
+      </c>
+      <c r="M7">
+        <v>4.05</v>
+      </c>
+      <c r="N7">
+        <v>4.09</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3.885649340729607</v>
+      </c>
+      <c r="Q7">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
+      </c>
+      <c r="S7">
+        <v>925</v>
+      </c>
+      <c r="T7">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U7">
+        <v>2703.29832676327</v>
+      </c>
+      <c r="V7">
+        <v>925</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>77.91</v>
+      </c>
+      <c r="C8">
+        <v>0.0984</v>
+      </c>
+      <c r="D8">
+        <v>12.07</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.0556</v>
+      </c>
+      <c r="H8">
+        <v>0.0257</v>
+      </c>
+      <c r="I8">
+        <v>0.0999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.5216</v>
+      </c>
+      <c r="M8">
+        <v>4.04</v>
+      </c>
+      <c r="N8">
+        <v>4.18</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>4.641842879454773</v>
+      </c>
+      <c r="Q8">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>862</v>
+      </c>
+      <c r="T8">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U8">
+        <v>3770.898088446477</v>
+      </c>
+      <c r="V8">
+        <v>925</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>77.91</v>
+      </c>
+      <c r="C9">
+        <v>0.0984</v>
+      </c>
+      <c r="D9">
+        <v>12.07</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.0556</v>
+      </c>
+      <c r="H9">
+        <v>0.0257</v>
+      </c>
+      <c r="I9">
+        <v>0.0999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.5216</v>
+      </c>
+      <c r="M9">
+        <v>4.04</v>
+      </c>
+      <c r="N9">
+        <v>4.18</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>4.402133475722628</v>
+      </c>
+      <c r="Q9">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>770</v>
+      </c>
+      <c r="T9">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U9">
+        <v>3436.876035591734</v>
+      </c>
+      <c r="V9">
+        <v>925</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>77.92</v>
+      </c>
+      <c r="C10">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>12.11</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.002</v>
+      </c>
+      <c r="H10">
+        <v>0.0672</v>
+      </c>
+      <c r="I10">
+        <v>0.0546</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.5346</v>
+      </c>
+      <c r="M10">
+        <v>4.01</v>
+      </c>
+      <c r="N10">
+        <v>4.3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>4.283934433487628</v>
+      </c>
+      <c r="Q10">
+        <v>0.00456593199077859</v>
+      </c>
+      <c r="R10">
+        <v>1000</v>
+      </c>
+      <c r="S10">
+        <v>855</v>
+      </c>
+      <c r="T10">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U10">
+        <v>3270.981199482766</v>
+      </c>
+      <c r="V10">
+        <v>925</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>77.92</v>
+      </c>
+      <c r="C11">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="D11">
+        <v>12.11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.002</v>
+      </c>
+      <c r="H11">
+        <v>0.0672</v>
+      </c>
+      <c r="I11">
+        <v>0.0546</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.5346</v>
+      </c>
+      <c r="M11">
+        <v>4.01</v>
+      </c>
+      <c r="N11">
+        <v>4.3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.230532593340062</v>
+      </c>
+      <c r="Q11">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R11">
+        <v>500</v>
+      </c>
+      <c r="S11">
+        <v>1000</v>
+      </c>
+      <c r="T11">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U11">
+        <v>3194.515089947729</v>
+      </c>
+      <c r="V11">
+        <v>925</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="D12">
+        <v>12.27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.0272</v>
+      </c>
+      <c r="H12">
+        <v>0.06279999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0342</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.6064000000000001</v>
+      </c>
+      <c r="M12">
+        <v>3.97</v>
+      </c>
+      <c r="N12">
+        <v>4.35</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>4.459767402959471</v>
+      </c>
+      <c r="Q12">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R12">
+        <v>5000</v>
+      </c>
+      <c r="S12">
+        <v>1010</v>
+      </c>
+      <c r="T12">
+        <v>8.32</v>
+      </c>
+      <c r="U12">
+        <v>3518.843043071171</v>
+      </c>
+      <c r="V12">
+        <v>925</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.0498</v>
+      </c>
+      <c r="D13">
+        <v>12.07</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.0844</v>
+      </c>
+      <c r="H13">
+        <v>0.07480000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.0355</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.4759</v>
+      </c>
+      <c r="M13">
+        <v>4.1</v>
+      </c>
+      <c r="N13">
+        <v>4.21</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>3.71250604586519</v>
+      </c>
+      <c r="Q13">
+        <v>0.00444796342858406</v>
+      </c>
+      <c r="R13">
+        <v>1000</v>
+      </c>
+      <c r="S13">
+        <v>1012</v>
+      </c>
+      <c r="T13">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U13">
+        <v>2453.693462293922</v>
+      </c>
+      <c r="V13">
+        <v>925</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.159</v>
+      </c>
+      <c r="D14">
+        <v>12.28</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.9769</v>
+      </c>
+      <c r="H14">
+        <v>0.0597</v>
+      </c>
+      <c r="I14">
+        <v>0.0577</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.5598</v>
+      </c>
+      <c r="M14">
+        <v>4.08</v>
+      </c>
+      <c r="N14">
+        <v>4.18</v>
+      </c>
+      <c r="O14">
+        <v>0.0064</v>
+      </c>
+      <c r="P14">
+        <v>4.443973024274503</v>
+      </c>
+      <c r="Q14">
+        <v>0.00465436710396932</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14">
+        <v>885</v>
+      </c>
+      <c r="T14">
+        <v>8.26</v>
+      </c>
+      <c r="U14">
+        <v>3496.721219982287</v>
+      </c>
+      <c r="V14">
+        <v>925</v>
+      </c>
+      <c r="W14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.159</v>
+      </c>
+      <c r="D15">
+        <v>12.28</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.9769</v>
+      </c>
+      <c r="H15">
+        <v>0.0597</v>
+      </c>
+      <c r="I15">
+        <v>0.0577</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.5598</v>
+      </c>
+      <c r="M15">
+        <v>4.08</v>
+      </c>
+      <c r="N15">
+        <v>4.18</v>
+      </c>
+      <c r="O15">
+        <v>0.0064</v>
+      </c>
+      <c r="P15">
+        <v>4.283171078254592</v>
+      </c>
+      <c r="Q15">
+        <v>0.00464452262096805</v>
+      </c>
+      <c r="R15">
+        <v>1000</v>
+      </c>
+      <c r="S15">
+        <v>885</v>
+      </c>
+      <c r="T15">
+        <v>8.26</v>
+      </c>
+      <c r="U15">
+        <v>3270.387320683244</v>
+      </c>
+      <c r="V15">
+        <v>925</v>
+      </c>
+      <c r="W15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>77.5</v>
@@ -6226,24 +6160,30 @@
         <v>900</v>
       </c>
       <c r="T2">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="U2">
         <v>2320</v>
       </c>
-      <c r="U2">
+      <c r="V2">
+        <v>0.768327978930714</v>
+      </c>
+      <c r="W2">
+        <v>0.231672021069286</v>
+      </c>
+      <c r="X2">
         <v>0.00127568788969956</v>
       </c>
-      <c r="V2">
-        <v>57.5834733153738</v>
-      </c>
-      <c r="W2">
-        <v>42.4165266846262</v>
-      </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.001207694679257374</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>78.37</v>
@@ -6300,24 +6240,30 @@
         <v>800</v>
       </c>
       <c r="T3">
+        <v>7.94</v>
+      </c>
+      <c r="U3">
         <v>1000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
+        <v>0.941900780925913</v>
+      </c>
+      <c r="W3">
+        <v>0.0580992190740868</v>
+      </c>
+      <c r="X3">
         <v>0.002467700427766</v>
       </c>
-      <c r="V3">
-        <v>86.9046146359522</v>
-      </c>
-      <c r="W3">
-        <v>13.0953853640479</v>
-      </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.002371534695849316</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>77.90000000000001</v>
@@ -6374,24 +6320,30 @@
         <v>900</v>
       </c>
       <c r="T4">
+        <v>8.17</v>
+      </c>
+      <c r="U4">
         <v>1220</v>
       </c>
-      <c r="U4">
+      <c r="V4">
+        <v>0.952863980252491</v>
+      </c>
+      <c r="W4">
+        <v>0.0471360197475093</v>
+      </c>
+      <c r="X4">
         <v>0.00173138957889252</v>
       </c>
-      <c r="V4">
-        <v>89.2183220557791</v>
-      </c>
-      <c r="W4">
-        <v>10.7816779442209</v>
-      </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.001656118971631854</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Z4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>78.27</v>
@@ -6448,24 +6400,30 @@
         <v>950</v>
       </c>
       <c r="T5">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U5">
         <v>1060</v>
       </c>
-      <c r="U5">
+      <c r="V5">
+        <v>0.948753363506343</v>
+      </c>
+      <c r="W5">
+        <v>0.051246636493657</v>
+      </c>
+      <c r="X5">
         <v>0.00124738510167463</v>
       </c>
-      <c r="V5">
-        <v>88.3428176153481</v>
-      </c>
-      <c r="W5">
-        <v>11.6571823846519</v>
-      </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.0011968266173041</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Z5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>78.27</v>
@@ -6522,24 +6480,30 @@
         <v>1025</v>
       </c>
       <c r="T6">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U6">
         <v>990</v>
       </c>
-      <c r="U6">
+      <c r="V6">
+        <v>0.949904374929045</v>
+      </c>
+      <c r="W6">
+        <v>0.0500956250709553</v>
+      </c>
+      <c r="X6">
         <v>0.00360038602125143</v>
       </c>
-      <c r="V6">
-        <v>88.58699077330721</v>
-      </c>
-      <c r="W6">
-        <v>11.4130092266928</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.003461404944460387</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Z6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>78.27</v>
@@ -6596,24 +6560,30 @@
         <v>925</v>
       </c>
       <c r="T7">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U7">
         <v>940</v>
       </c>
-      <c r="U7">
+      <c r="V7">
+        <v>0.939086525067174</v>
+      </c>
+      <c r="W7">
+        <v>0.0609134749328257</v>
+      </c>
+      <c r="X7">
         <v>0.00118833152785373</v>
       </c>
-      <c r="V7">
-        <v>86.3215386824094</v>
-      </c>
-      <c r="W7">
-        <v>13.6784613175906</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.001143779005617492</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Z7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>77.91</v>
@@ -6670,24 +6640,30 @@
         <v>862</v>
       </c>
       <c r="T8">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U8">
         <v>1210</v>
       </c>
-      <c r="U8">
+      <c r="V8">
+        <v>0.95864098629273</v>
+      </c>
+      <c r="W8">
+        <v>0.0413590137072698</v>
+      </c>
+      <c r="X8">
         <v>0.00383835752856005</v>
       </c>
-      <c r="V8">
-        <v>90.4653102834986</v>
-      </c>
-      <c r="W8">
-        <v>9.534689716501379</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.00366788842301788</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Z8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>77.91</v>
@@ -6744,24 +6720,30 @@
         <v>770</v>
       </c>
       <c r="T9">
+        <v>8.219999999999999</v>
+      </c>
+      <c r="U9">
         <v>1120</v>
       </c>
-      <c r="U9">
+      <c r="V9">
+        <v>0.955742293959602</v>
+      </c>
+      <c r="W9">
+        <v>0.0442577060403975</v>
+      </c>
+      <c r="X9">
         <v>0.00379340772444169</v>
       </c>
-      <c r="V9">
-        <v>89.83717413055631</v>
-      </c>
-      <c r="W9">
-        <v>10.1628258694437</v>
-      </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.003633261498476028</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Z9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>77.92</v>
@@ -6818,24 +6800,30 @@
         <v>855</v>
       </c>
       <c r="T10">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U10">
         <v>1070</v>
       </c>
-      <c r="U10">
+      <c r="V10">
+        <v>0.95088016279682</v>
+      </c>
+      <c r="W10">
+        <v>0.0491198372031796</v>
+      </c>
+      <c r="X10">
         <v>0.00329489170873274</v>
       </c>
-      <c r="V10">
-        <v>88.7945855776954</v>
-      </c>
-      <c r="W10">
-        <v>11.2054144223046</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.003159149367177824</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Z10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>77.92</v>
@@ -6892,24 +6880,30 @@
         <v>1000</v>
       </c>
       <c r="T11">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U11">
         <v>1070</v>
       </c>
-      <c r="U11">
+      <c r="V11">
+        <v>0.953363364380356</v>
+      </c>
+      <c r="W11">
+        <v>0.0466366356196444</v>
+      </c>
+      <c r="X11">
         <v>0.00338630212586822</v>
       </c>
-      <c r="V11">
-        <v>89.325346858291</v>
-      </c>
-      <c r="W11">
-        <v>10.674653141709</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.003248460819519302</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Z11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>77.68000000000001</v>
@@ -6966,24 +6960,30 @@
         <v>1010</v>
       </c>
       <c r="T12">
+        <v>8.32</v>
+      </c>
+      <c r="U12">
         <v>1170</v>
       </c>
-      <c r="U12">
+      <c r="V12">
+        <v>0.953279775065526</v>
+      </c>
+      <c r="W12">
+        <v>0.0467202249344739</v>
+      </c>
+      <c r="X12">
         <v>0.000739715252601243</v>
       </c>
-      <c r="V12">
-        <v>89.3074224634971</v>
-      </c>
-      <c r="W12">
-        <v>10.6925775365029</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
         <v>0.0007080334344059839</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>77.90000000000001</v>
@@ -7040,24 +7040,30 @@
         <v>1012</v>
       </c>
       <c r="T13">
+        <v>8.309999999999999</v>
+      </c>
+      <c r="U13">
         <v>890</v>
       </c>
-      <c r="U13">
+      <c r="V13">
+        <v>0.9392943069044351</v>
+      </c>
+      <c r="W13">
+        <v>0.0607056930955652</v>
+      </c>
+      <c r="X13">
         <v>0.00147765652118104</v>
       </c>
-      <c r="V13">
-        <v>86.3644394162996</v>
-      </c>
-      <c r="W13">
-        <v>13.6355605837004</v>
-      </c>
-      <c r="X13">
+      <c r="Y13">
         <v>0.001424695544246748</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Z13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>77.65000000000001</v>
@@ -7114,24 +7120,30 @@
         <v>885</v>
       </c>
       <c r="T14">
+        <v>8.26</v>
+      </c>
+      <c r="U14">
         <v>1140</v>
       </c>
-      <c r="U14">
+      <c r="V14">
+        <v>0.954766277638762</v>
+      </c>
+      <c r="W14">
+        <v>0.045233722361238</v>
+      </c>
+      <c r="X14">
         <v>0.00439410364619745</v>
       </c>
-      <c r="V14">
-        <v>89.6267849456642</v>
-      </c>
-      <c r="W14">
-        <v>10.3732150543358</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
         <v>0.004206569422534116</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Z14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>77.65000000000001</v>
@@ -7188,19 +7200,25 @@
         <v>885</v>
       </c>
       <c r="T15">
+        <v>8.26</v>
+      </c>
+      <c r="U15">
         <v>1080</v>
       </c>
-      <c r="U15">
+      <c r="V15">
+        <v>0.951421202165375</v>
+      </c>
+      <c r="W15">
+        <v>0.0485787978346248</v>
+      </c>
+      <c r="X15">
         <v>0.00403584638951153</v>
       </c>
-      <c r="V15">
-        <v>88.9099248720044</v>
-      </c>
-      <c r="W15">
-        <v>11.0900751279956</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.003869559217569787</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="78">
   <si>
     <t>CITATION</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Temp</t>
-  </si>
-  <si>
-    <t>TotalAlkalis</t>
   </si>
   <si>
     <t>Label</t>
@@ -211,6 +208,45 @@
   </si>
   <si>
     <t>Dixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiO2 (49.1 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (49.6 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (50.3 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiO2 (62.6 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (62.6 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, SiO2 (77.0 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (76.9 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (77.2 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (75.4 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), SiO2 (76.6 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure exceeds 1000 bar, which Iacono-Marziano et al. (2012) suggest as an upper calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model, as well as the upper calibration limit of 2000 bar suggested by Lesne et al. (2011), and the upper calibration limit of 5000 bar suggested by Newman and Lowenstern, (2002). SiO2 (53.0 wt%)&gt;49 wt%, which is the calibration limit of the Dixon (1997, Pi-SiO2 simpl.) Model. VESIcal has performed calculations assuming SiO2=49wt% for this sample. temperature (925.0 oC) lies more than 200°C away from the temperature the Dixon (1997, Pi-SiO2 simpl.) model was calibrated for (the range suggested by Newman and Lowenstern, 2002; VolatileCalc). </t>
   </si>
   <si>
     <t>FluidMass_grams_VESIcal</t>
@@ -574,15 +610,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -644,19 +680,16 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>48.2492073388727</v>
@@ -712,19 +745,16 @@
       <c r="U2">
         <v>1299.094712370722</v>
       </c>
-      <c r="V2">
-        <v>2.162535196582507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>48.2956914301173</v>
@@ -780,19 +810,16 @@
       <c r="U3">
         <v>1283.41999102325</v>
       </c>
-      <c r="V3">
-        <v>2.641525904052477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>49.1240791972564</v>
@@ -848,19 +875,16 @@
       <c r="U4">
         <v>1255.153759017119</v>
       </c>
-      <c r="V4">
-        <v>2.398375100984727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>47.96</v>
@@ -916,19 +940,16 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>49.64</v>
@@ -984,19 +1005,16 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>50.32</v>
@@ -1052,19 +1070,16 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>62.6</v>
@@ -1120,19 +1135,16 @@
       <c r="U8">
         <v>1100</v>
       </c>
-      <c r="V8">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>62.6</v>
@@ -1188,19 +1200,16 @@
       <c r="U9">
         <v>1100</v>
       </c>
-      <c r="V9">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>62.6</v>
@@ -1256,19 +1265,16 @@
       <c r="U10">
         <v>1050</v>
       </c>
-      <c r="V10">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>76.9748797434527</v>
@@ -1324,19 +1330,16 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>1.272047033671834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>76.9438448701072</v>
@@ -1392,19 +1395,16 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1.311799841754696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>77.18720482277639</v>
@@ -1460,19 +1460,16 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>1.297124701290296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>75.4139659380119</v>
@@ -1528,19 +1525,16 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>8.83150186153892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>76.61358570474</v>
@@ -1596,19 +1590,16 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>8.25677133100881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>48.03</v>
@@ -1664,19 +1655,16 @@
       <c r="U16">
         <v>1050</v>
       </c>
-      <c r="V16">
-        <v>9.120000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>52.98</v>
@@ -1732,19 +1720,16 @@
       <c r="U17">
         <v>1000</v>
       </c>
-      <c r="V17">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>44.61</v>
@@ -1799,9 +1784,6 @@
       </c>
       <c r="U18">
         <v>1100</v>
-      </c>
-      <c r="V18">
-        <v>5.67</v>
       </c>
     </row>
   </sheetData>
@@ -1810,1570 +1792,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
-      </c>
-      <c r="T2">
-        <v>62.5</v>
-      </c>
-      <c r="U2">
-        <v>1299.094712370722</v>
-      </c>
-      <c r="V2">
-        <v>2.162535196582507</v>
-      </c>
-      <c r="W2">
-        <v>5.256560783797</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>900</v>
-      </c>
-      <c r="Z2">
-        <v>2000</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
-      </c>
-      <c r="T3">
-        <v>128</v>
-      </c>
-      <c r="U3">
-        <v>1283.41999102325</v>
-      </c>
-      <c r="V3">
-        <v>2.641525904052477</v>
-      </c>
-      <c r="W3">
-        <v>5.41772022250837</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>900</v>
-      </c>
-      <c r="Z3">
-        <v>2000</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
-      </c>
-      <c r="T4">
-        <v>124.5</v>
-      </c>
-      <c r="U4">
-        <v>1255.153759017119</v>
-      </c>
-      <c r="V4">
-        <v>2.398375100984727</v>
-      </c>
-      <c r="W4">
-        <v>5.35342092766026</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>900</v>
-      </c>
-      <c r="Z4">
-        <v>2000</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>2.16</v>
-      </c>
-      <c r="W5">
-        <v>4.98402120487248</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>900</v>
-      </c>
-      <c r="Z5">
-        <v>2000</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>2.19</v>
-      </c>
-      <c r="W6">
-        <v>5.13441906811694</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>900</v>
-      </c>
-      <c r="Z6">
-        <v>2000</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="1">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>2.04</v>
-      </c>
-      <c r="W7">
-        <v>5.18906799155366</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>900</v>
-      </c>
-      <c r="Z7">
-        <v>2000</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>62.6</v>
-      </c>
-      <c r="E8">
-        <v>0.63</v>
-      </c>
-      <c r="F8">
-        <v>17.3</v>
-      </c>
-      <c r="G8">
-        <v>2.01</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2.01</v>
-      </c>
-      <c r="J8">
-        <v>0.06</v>
-      </c>
-      <c r="K8">
-        <v>2.65</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>5.64</v>
-      </c>
-      <c r="O8">
-        <v>4.05</v>
-      </c>
-      <c r="P8">
-        <v>1.61</v>
-      </c>
-      <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>703</v>
-      </c>
-      <c r="U8">
-        <v>1100</v>
-      </c>
-      <c r="V8">
-        <v>5.66</v>
-      </c>
-      <c r="W8">
-        <v>5.8104394973626</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>900</v>
-      </c>
-      <c r="Z8">
-        <v>2000</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>62.6</v>
-      </c>
-      <c r="E9">
-        <v>0.63</v>
-      </c>
-      <c r="F9">
-        <v>17.3</v>
-      </c>
-      <c r="G9">
-        <v>2.01</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>2.01</v>
-      </c>
-      <c r="J9">
-        <v>0.06</v>
-      </c>
-      <c r="K9">
-        <v>2.65</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>5.64</v>
-      </c>
-      <c r="O9">
-        <v>4.05</v>
-      </c>
-      <c r="P9">
-        <v>1.61</v>
-      </c>
-      <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>1865</v>
-      </c>
-      <c r="U9">
-        <v>1100</v>
-      </c>
-      <c r="V9">
-        <v>5.66</v>
-      </c>
-      <c r="W9">
-        <v>5.8104394973626</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>900</v>
-      </c>
-      <c r="Z9">
-        <v>2000</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>62.6</v>
-      </c>
-      <c r="E10">
-        <v>0.63</v>
-      </c>
-      <c r="F10">
-        <v>17.3</v>
-      </c>
-      <c r="G10">
-        <v>2.01</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>2.01</v>
-      </c>
-      <c r="J10">
-        <v>0.06</v>
-      </c>
-      <c r="K10">
-        <v>2.65</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>5.64</v>
-      </c>
-      <c r="O10">
-        <v>4.05</v>
-      </c>
-      <c r="P10">
-        <v>1.61</v>
-      </c>
-      <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>2985</v>
-      </c>
-      <c r="U10">
-        <v>1050</v>
-      </c>
-      <c r="V10">
-        <v>5.66</v>
-      </c>
-      <c r="W10">
-        <v>5.8104394973626</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>900</v>
-      </c>
-      <c r="Z10">
-        <v>2000</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>1.272047033671834</v>
-      </c>
-      <c r="W11">
-        <v>6.4847494433112</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>900</v>
-      </c>
-      <c r="Z11">
-        <v>2000</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>1.311799841754696</v>
-      </c>
-      <c r="W12">
-        <v>6.47381318661602</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>900</v>
-      </c>
-      <c r="Z12">
-        <v>2000</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1.297124701290296</v>
-      </c>
-      <c r="W13">
-        <v>6.48210880136636</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>900</v>
-      </c>
-      <c r="Z13">
-        <v>2000</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>8.83150186153892</v>
-      </c>
-      <c r="W14">
-        <v>6.09762974820214</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>900</v>
-      </c>
-      <c r="Z14">
-        <v>2000</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>8.25677133100881</v>
-      </c>
-      <c r="W15">
-        <v>6.1386578369785</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>900</v>
-      </c>
-      <c r="Z15">
-        <v>2000</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
-      </c>
-      <c r="T16">
-        <v>2000</v>
-      </c>
-      <c r="U16">
-        <v>1050</v>
-      </c>
-      <c r="V16">
-        <v>9.120000000000001</v>
-      </c>
-      <c r="W16">
-        <v>5.85663619533448</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>900</v>
-      </c>
-      <c r="Z16">
-        <v>2000</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
-      </c>
-      <c r="T17">
-        <v>4000</v>
-      </c>
-      <c r="U17">
-        <v>1000</v>
-      </c>
-      <c r="V17">
-        <v>8.84</v>
-      </c>
-      <c r="W17">
-        <v>5.87945706596438</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>900</v>
-      </c>
-      <c r="Z17">
-        <v>2000</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
-      </c>
-      <c r="T18">
-        <v>2000</v>
-      </c>
-      <c r="U18">
-        <v>1100</v>
-      </c>
-      <c r="V18">
-        <v>5.67</v>
-      </c>
-      <c r="W18">
-        <v>4.91843026216321</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>900</v>
-      </c>
-      <c r="Z18">
-        <v>2000</v>
-      </c>
-      <c r="AA18">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB18"/>
   <sheetViews>
@@ -3383,7 +1801,7 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3446,13 +1864,13 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>52</v>
@@ -3461,21 +1879,21 @@
         <v>53</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>48.2492073388727</v>
@@ -3532,33 +1950,33 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>2.162535196582507</v>
+        <v>5.256560783797</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Y2">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>48.2956914301173</v>
@@ -3615,33 +2033,33 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>2.641525904052477</v>
+        <v>5.41772022250837</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Y3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>49.1240791972564</v>
@@ -3698,33 +2116,33 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>2.398375100984727</v>
+        <v>5.35342092766026</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Y4">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>47.96</v>
@@ -3781,33 +2199,33 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2.16</v>
+        <v>4.98402120487248</v>
       </c>
       <c r="W5">
-        <v>0.98453086166527</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0154691383347301</v>
+        <v>900</v>
       </c>
       <c r="Y5">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>49.64</v>
@@ -3864,22 +2282,22 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2.19</v>
+        <v>5.13441906811694</v>
       </c>
       <c r="W6">
-        <v>0.974997322085125</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.025002677914875</v>
+        <v>900</v>
       </c>
       <c r="Y6">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z6">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3887,10 +2305,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>50.32</v>
@@ -3947,33 +2365,33 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>2.04</v>
+        <v>5.18906799155366</v>
       </c>
       <c r="W7">
-        <v>0.990107301293896</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.009892698706104319</v>
+        <v>900</v>
       </c>
       <c r="Y7">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z7">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>62.6</v>
@@ -4030,33 +2448,33 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>5.66</v>
+        <v>5.8104394973626</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="Y8">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>62.6</v>
@@ -4113,30 +2531,33 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>5.66</v>
+        <v>5.8104394973626</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>900</v>
       </c>
       <c r="Y9">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>62.6</v>
@@ -4193,30 +2614,33 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>5.66</v>
+        <v>5.8104394973626</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>900</v>
       </c>
       <c r="Y10">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z10">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>76.9748797434527</v>
@@ -4273,33 +2697,33 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1.272047033671834</v>
+        <v>6.4847494433112</v>
       </c>
       <c r="W11">
-        <v>0.977773260513754</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.0222267394862459</v>
+        <v>900</v>
       </c>
       <c r="Y11">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z11">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>76.9438448701072</v>
@@ -4356,33 +2780,33 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1.311799841754696</v>
+        <v>6.47381318661602</v>
       </c>
       <c r="W12">
-        <v>0.996798698695069</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0.00320130130493079</v>
+        <v>900</v>
       </c>
       <c r="Y12">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z12">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>77.18720482277639</v>
@@ -4439,33 +2863,33 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1.297124701290296</v>
+        <v>6.48210880136636</v>
       </c>
       <c r="W13">
-        <v>0.997028166385327</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0.00297183361467259</v>
+        <v>900</v>
       </c>
       <c r="Y13">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z13">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>75.4139659380119</v>
@@ -4522,33 +2946,33 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>8.83150186153892</v>
+        <v>6.09762974820214</v>
       </c>
       <c r="W14">
-        <v>0.997769634114733</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0.00223036588526733</v>
+        <v>900</v>
       </c>
       <c r="Y14">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z14">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>76.61358570474</v>
@@ -4605,33 +3029,33 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>8.25677133100881</v>
+        <v>6.1386578369785</v>
       </c>
       <c r="W15">
-        <v>0.997273421790505</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0.00272657820949514</v>
+        <v>900</v>
       </c>
       <c r="Y15">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z15">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>48.03</v>
@@ -4688,33 +3112,33 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>9.120000000000001</v>
+        <v>5.85663619533448</v>
       </c>
       <c r="W16">
-        <v>0.261571501373921</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.738428498626079</v>
+        <v>900</v>
       </c>
       <c r="Y16">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z16">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>52.98</v>
@@ -4771,33 +3195,33 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>8.84</v>
+        <v>5.87945706596438</v>
       </c>
       <c r="W17">
-        <v>0.897441002008732</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0.102558997991268</v>
+        <v>900</v>
       </c>
       <c r="Y17">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Z17">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>44.61</v>
@@ -4854,22 +3278,1472 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>5.67</v>
+        <v>4.91843026216321</v>
       </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>900</v>
+      </c>
+      <c r="Y18">
+        <v>2000</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="E2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="F2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="K2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="O2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="P2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="Q2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="R2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="S2">
+        <v>0.002873020370883501</v>
+      </c>
+      <c r="T2">
+        <v>62.5</v>
+      </c>
+      <c r="U2">
+        <v>1299.094712370722</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>900</v>
+      </c>
+      <c r="Y2">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="E3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="F3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="K3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="O3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="P3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="Q3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="R3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="S3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="T3">
+        <v>128</v>
+      </c>
+      <c r="U3">
+        <v>1283.41999102325</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>900</v>
+      </c>
+      <c r="Y3">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="E4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="F4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="K4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="O4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="P4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="Q4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="R4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="S4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="T4">
+        <v>124.5</v>
+      </c>
+      <c r="U4">
+        <v>1255.153759017119</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>900</v>
+      </c>
+      <c r="Y4">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>47.96</v>
+      </c>
+      <c r="E5">
+        <v>0.78</v>
+      </c>
+      <c r="F5">
+        <v>18.77</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10.92</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
+        <v>6.86</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.23</v>
+      </c>
+      <c r="O5">
+        <v>1.95</v>
+      </c>
+      <c r="P5">
+        <v>0.21</v>
+      </c>
+      <c r="Q5">
+        <v>0.17</v>
+      </c>
+      <c r="R5">
+        <v>4.5</v>
+      </c>
+      <c r="S5">
+        <v>0.0479</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.98453086166527</v>
+      </c>
+      <c r="W5">
+        <v>0.0154691383347301</v>
+      </c>
+      <c r="X5">
+        <v>900</v>
+      </c>
+      <c r="Y5">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>49.64</v>
+      </c>
+      <c r="E6">
+        <v>0.71</v>
+      </c>
+      <c r="F6">
+        <v>18.05</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10.54</v>
+      </c>
+      <c r="J6">
+        <v>0.19</v>
+      </c>
+      <c r="K6">
+        <v>6.43</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.09</v>
+      </c>
+      <c r="O6">
+        <v>1.99</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>0.17</v>
+      </c>
+      <c r="R6">
+        <v>5.1</v>
+      </c>
+      <c r="S6">
+        <v>0.1113</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.974997322085125</v>
+      </c>
+      <c r="W6">
+        <v>0.025002677914875</v>
+      </c>
+      <c r="X6">
+        <v>900</v>
+      </c>
+      <c r="Y6">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>50.32</v>
+      </c>
+      <c r="E7">
+        <v>0.72</v>
+      </c>
+      <c r="F7">
+        <v>18.03</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>10.11</v>
+      </c>
+      <c r="J7">
+        <v>0.14</v>
+      </c>
+      <c r="K7">
+        <v>5.65</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.78</v>
+      </c>
+      <c r="O7">
+        <v>1.8</v>
+      </c>
+      <c r="P7">
+        <v>0.24</v>
+      </c>
+      <c r="Q7">
+        <v>0.23</v>
+      </c>
+      <c r="R7">
+        <v>5.2</v>
+      </c>
+      <c r="S7">
+        <v>0.0437</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.990107301293896</v>
+      </c>
+      <c r="W7">
+        <v>0.009892698706104319</v>
+      </c>
+      <c r="X7">
+        <v>900</v>
+      </c>
+      <c r="Y7">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>62.6</v>
+      </c>
+      <c r="E8">
+        <v>0.63</v>
+      </c>
+      <c r="F8">
+        <v>17.3</v>
+      </c>
+      <c r="G8">
+        <v>2.01</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2.01</v>
+      </c>
+      <c r="J8">
+        <v>0.06</v>
+      </c>
+      <c r="K8">
+        <v>2.65</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>5.64</v>
+      </c>
+      <c r="O8">
+        <v>4.05</v>
+      </c>
+      <c r="P8">
+        <v>1.61</v>
+      </c>
+      <c r="Q8">
+        <v>0.24</v>
+      </c>
+      <c r="R8">
+        <v>2.62</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>703</v>
+      </c>
+      <c r="U8">
+        <v>1100</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>900</v>
+      </c>
+      <c r="Y8">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>62.6</v>
+      </c>
+      <c r="E9">
+        <v>0.63</v>
+      </c>
+      <c r="F9">
+        <v>17.3</v>
+      </c>
+      <c r="G9">
+        <v>2.01</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2.01</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+      <c r="K9">
+        <v>2.65</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>5.64</v>
+      </c>
+      <c r="O9">
+        <v>4.05</v>
+      </c>
+      <c r="P9">
+        <v>1.61</v>
+      </c>
+      <c r="Q9">
+        <v>0.24</v>
+      </c>
+      <c r="R9">
+        <v>5.03</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1865</v>
+      </c>
+      <c r="U9">
+        <v>1100</v>
+      </c>
+      <c r="X9">
+        <v>900</v>
+      </c>
+      <c r="Y9">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>62.6</v>
+      </c>
+      <c r="E10">
+        <v>0.63</v>
+      </c>
+      <c r="F10">
+        <v>17.3</v>
+      </c>
+      <c r="G10">
+        <v>2.01</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.01</v>
+      </c>
+      <c r="J10">
+        <v>0.06</v>
+      </c>
+      <c r="K10">
+        <v>2.65</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>5.64</v>
+      </c>
+      <c r="O10">
+        <v>4.05</v>
+      </c>
+      <c r="P10">
+        <v>1.61</v>
+      </c>
+      <c r="Q10">
+        <v>0.24</v>
+      </c>
+      <c r="R10">
+        <v>6.76</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>2985</v>
+      </c>
+      <c r="U10">
+        <v>1050</v>
+      </c>
+      <c r="X10">
+        <v>900</v>
+      </c>
+      <c r="Y10">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="E11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="F11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="O11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="P11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>4.34</v>
+      </c>
+      <c r="S11">
+        <v>0.007</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.977773260513754</v>
+      </c>
+      <c r="W11">
+        <v>0.0222267394862459</v>
+      </c>
+      <c r="X11">
+        <v>900</v>
+      </c>
+      <c r="Y11">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="E12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="F12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="O12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="P12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>5.85</v>
+      </c>
+      <c r="S12">
+        <v>0.0123</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.996798698695069</v>
+      </c>
+      <c r="W12">
+        <v>0.00320130130493079</v>
+      </c>
+      <c r="X12">
+        <v>900</v>
+      </c>
+      <c r="Y12">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="E13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="F13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="O13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="P13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="S13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0.997028166385327</v>
+      </c>
+      <c r="W13">
+        <v>0.00297183361467259</v>
+      </c>
+      <c r="X13">
+        <v>900</v>
+      </c>
+      <c r="Y13">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="E14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="F14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="J14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="K14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="O14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="P14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>5.94375</v>
+      </c>
+      <c r="S14">
+        <v>0.01</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0.997769634114733</v>
+      </c>
+      <c r="W14">
+        <v>0.00223036588526733</v>
+      </c>
+      <c r="X14">
+        <v>900</v>
+      </c>
+      <c r="Y14">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="E15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="F15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="J15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="K15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="O15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="P15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>5.34</v>
+      </c>
+      <c r="S15">
+        <v>0.008</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0.997273421790505</v>
+      </c>
+      <c r="W15">
+        <v>0.00272657820949514</v>
+      </c>
+      <c r="X15">
+        <v>900</v>
+      </c>
+      <c r="Y15">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>48.03</v>
+      </c>
+      <c r="E16">
+        <v>2.84</v>
+      </c>
+      <c r="F16">
+        <v>18.12</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>9.6</v>
+      </c>
+      <c r="J16">
+        <v>0.23</v>
+      </c>
+      <c r="K16">
+        <v>3.08</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7.57</v>
+      </c>
+      <c r="O16">
+        <v>6.04</v>
+      </c>
+      <c r="P16">
+        <v>3.08</v>
+      </c>
+      <c r="Q16">
+        <v>1.41</v>
+      </c>
+      <c r="R16">
+        <v>1.42</v>
+      </c>
+      <c r="S16">
+        <v>0.1298</v>
+      </c>
+      <c r="T16">
+        <v>2000</v>
+      </c>
+      <c r="U16">
+        <v>1050</v>
+      </c>
+      <c r="V16">
+        <v>0.261571501373921</v>
+      </c>
+      <c r="W16">
+        <v>0.738428498626079</v>
+      </c>
+      <c r="X16">
+        <v>900</v>
+      </c>
+      <c r="Y16">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>52.98</v>
+      </c>
+      <c r="E17">
+        <v>2.18</v>
+      </c>
+      <c r="F17">
+        <v>20.49</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>5.54</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>7.1</v>
+      </c>
+      <c r="O17">
+        <v>5.68</v>
+      </c>
+      <c r="P17">
+        <v>3.16</v>
+      </c>
+      <c r="Q17">
+        <v>0.66</v>
+      </c>
+      <c r="R17">
+        <v>4.76</v>
+      </c>
+      <c r="S17">
+        <v>0.3439</v>
+      </c>
+      <c r="T17">
+        <v>4000</v>
+      </c>
+      <c r="U17">
+        <v>1000</v>
+      </c>
+      <c r="V17">
+        <v>0.897441002008732</v>
+      </c>
+      <c r="W17">
+        <v>0.102558997991268</v>
+      </c>
+      <c r="X17">
+        <v>900</v>
+      </c>
+      <c r="Y17">
+        <v>1000</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>44.61</v>
+      </c>
+      <c r="E18">
+        <v>4.37</v>
+      </c>
+      <c r="F18">
+        <v>14.41</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10.6</v>
+      </c>
+      <c r="J18">
+        <v>0.17</v>
+      </c>
+      <c r="K18">
+        <v>7.69</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.55</v>
+      </c>
+      <c r="O18">
+        <v>3.93</v>
+      </c>
+      <c r="P18">
+        <v>1.74</v>
+      </c>
+      <c r="Q18">
+        <v>0.92</v>
+      </c>
+      <c r="R18">
+        <v>2.9</v>
+      </c>
+      <c r="S18">
+        <v>0.1131</v>
+      </c>
+      <c r="T18">
+        <v>2000</v>
+      </c>
+      <c r="U18">
+        <v>1100</v>
+      </c>
+      <c r="V18">
         <v>0.826013711672167</v>
       </c>
+      <c r="W18">
+        <v>0.173986288327833</v>
+      </c>
       <c r="X18">
-        <v>0.173986288327833</v>
+        <v>900</v>
       </c>
       <c r="Y18">
-        <v>900</v>
-      </c>
-      <c r="Z18">
         <v>1000</v>
       </c>
-      <c r="AA18" t="s">
-        <v>57</v>
+      <c r="Z18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4879,15 +4753,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4950,30 +4824,27 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>48.2492073388727</v>
@@ -5030,27 +4901,24 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>2.162535196582507</v>
+        <v>0.586163616167993</v>
       </c>
       <c r="W2">
-        <v>0.586163616167993</v>
-      </c>
-      <c r="X2">
         <v>0.413836383832007</v>
       </c>
-      <c r="Y2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>48.2956914301173</v>
@@ -5107,27 +4975,24 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>2.641525904052477</v>
+        <v>0.286160199880086</v>
       </c>
       <c r="W3">
-        <v>0.286160199880086</v>
-      </c>
-      <c r="X3">
         <v>0.713839800119914</v>
       </c>
-      <c r="Y3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>49.1240791972564</v>
@@ -5184,27 +5049,24 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>2.398375100984727</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>47.96</v>
@@ -5260,25 +5122,22 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>2.16</v>
+      <c r="X5" t="s">
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>49.64</v>
@@ -5334,25 +5193,22 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>2.19</v>
+      <c r="X6" t="s">
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>50.32</v>
@@ -5408,25 +5264,22 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>2.04</v>
+      <c r="X7" t="s">
+        <v>56</v>
       </c>
       <c r="Y7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>62.6</v>
@@ -5483,27 +5336,24 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>62.6</v>
@@ -5560,27 +5410,24 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>62.6</v>
@@ -5637,27 +5484,24 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>76.9748797434527</v>
@@ -5713,25 +5557,22 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>1.272047033671834</v>
+      <c r="X11" t="s">
+        <v>56</v>
       </c>
       <c r="Y11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>76.9438448701072</v>
@@ -5787,25 +5628,22 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1.311799841754696</v>
+      <c r="X12" t="s">
+        <v>56</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>77.18720482277639</v>
@@ -5861,25 +5699,22 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>1.297124701290296</v>
+      <c r="X13" t="s">
+        <v>56</v>
       </c>
       <c r="Y13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>75.4139659380119</v>
@@ -5935,25 +5770,22 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>8.83150186153892</v>
+      <c r="X14" t="s">
+        <v>56</v>
       </c>
       <c r="Y14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>76.61358570474</v>
@@ -6009,25 +5841,22 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>8.25677133100881</v>
+      <c r="X15" t="s">
+        <v>56</v>
       </c>
       <c r="Y15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>48.03</v>
@@ -6084,27 +5913,24 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>9.120000000000001</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>52.98</v>
@@ -6161,27 +5987,24 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>8.84</v>
+        <v>0.492212786800576</v>
       </c>
       <c r="W17">
-        <v>0.492212786800576</v>
-      </c>
-      <c r="X17">
         <v>0.507787213199424</v>
       </c>
-      <c r="Y17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="X17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>44.61</v>
@@ -6238,16 +6061,13 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>57</v>
+      <c r="X18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6257,15 +6077,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6328,30 +6148,27 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>48.2492073388727</v>
@@ -6408,27 +6225,27 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>2.162535196582507</v>
+        <v>58.37402929839406</v>
       </c>
       <c r="W2">
-        <v>58.37402929839406</v>
-      </c>
-      <c r="X2">
         <v>925</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
       </c>
       <c r="Y2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>48.2956914301173</v>
@@ -6485,27 +6302,27 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>2.641525904052477</v>
+        <v>120.2651589515936</v>
       </c>
       <c r="W3">
-        <v>120.2651589515936</v>
-      </c>
-      <c r="X3">
         <v>925</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>49.1240791972564</v>
@@ -6562,27 +6379,27 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>2.398375100984727</v>
+        <v>116.4748412323493</v>
       </c>
       <c r="W4">
-        <v>116.4748412323493</v>
-      </c>
-      <c r="X4">
         <v>925</v>
       </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
       <c r="Y4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>47.96</v>
@@ -6639,27 +6456,27 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>2.16</v>
+        <v>2911.621839681963</v>
       </c>
       <c r="W5">
-        <v>2911.621839681963</v>
-      </c>
-      <c r="X5">
         <v>925</v>
       </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
       <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>49.64</v>
@@ -6716,27 +6533,27 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>2.19</v>
+        <v>4494.45205669575</v>
       </c>
       <c r="W6">
-        <v>4494.45205669575</v>
-      </c>
-      <c r="X6">
         <v>925</v>
       </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
       <c r="Y6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>50.32</v>
@@ -6793,27 +6610,27 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>2.04</v>
+        <v>3548.195662002463</v>
       </c>
       <c r="W7">
-        <v>3548.195662002463</v>
-      </c>
-      <c r="X7">
         <v>925</v>
       </c>
+      <c r="X7" t="s">
+        <v>62</v>
+      </c>
       <c r="Y7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>62.6</v>
@@ -6870,27 +6687,27 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>5.66</v>
+        <v>612.8838884713551</v>
       </c>
       <c r="W8">
-        <v>612.8838884713551</v>
-      </c>
-      <c r="X8">
         <v>925</v>
       </c>
+      <c r="X8" t="s">
+        <v>62</v>
+      </c>
       <c r="Y8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>62.6</v>
@@ -6947,27 +6764,27 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>5.66</v>
+        <v>2247.897944900186</v>
       </c>
       <c r="W9">
-        <v>2247.897944900186</v>
-      </c>
-      <c r="X9">
         <v>925</v>
       </c>
+      <c r="X9" t="s">
+        <v>62</v>
+      </c>
       <c r="Y9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>62.6</v>
@@ -7024,27 +6841,27 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>5.66</v>
+        <v>3750.364369802378</v>
       </c>
       <c r="W10">
-        <v>3750.364369802378</v>
-      </c>
-      <c r="X10">
         <v>925</v>
       </c>
+      <c r="X10" t="s">
+        <v>62</v>
+      </c>
       <c r="Y10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>76.9748797434527</v>
@@ -7101,27 +6918,27 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1.272047033671834</v>
+        <v>1730.452180365186</v>
       </c>
       <c r="W11">
-        <v>1730.452180365186</v>
-      </c>
-      <c r="X11">
         <v>925</v>
       </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
       <c r="Y11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>76.9438448701072</v>
@@ -7178,27 +6995,27 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1.311799841754696</v>
+        <v>3000.084295259784</v>
       </c>
       <c r="W12">
-        <v>3000.084295259784</v>
-      </c>
-      <c r="X12">
         <v>925</v>
       </c>
+      <c r="X12" t="s">
+        <v>62</v>
+      </c>
       <c r="Y12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>77.18720482277639</v>
@@ -7255,27 +7072,27 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1.297124701290296</v>
+        <v>2889.838299085401</v>
       </c>
       <c r="W13">
-        <v>2889.838299085401</v>
-      </c>
-      <c r="X13">
         <v>925</v>
       </c>
+      <c r="X13" t="s">
+        <v>62</v>
+      </c>
       <c r="Y13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>75.4139659380119</v>
@@ -7332,27 +7149,27 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>8.83150186153892</v>
+        <v>3037.326884304965</v>
       </c>
       <c r="W14">
-        <v>3037.326884304965</v>
-      </c>
-      <c r="X14">
         <v>925</v>
       </c>
+      <c r="X14" t="s">
+        <v>62</v>
+      </c>
       <c r="Y14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>76.61358570474</v>
@@ -7409,27 +7226,27 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>8.25677133100881</v>
+        <v>2487.717587216084</v>
       </c>
       <c r="W15">
-        <v>2487.717587216084</v>
-      </c>
-      <c r="X15">
         <v>925</v>
       </c>
+      <c r="X15" t="s">
+        <v>62</v>
+      </c>
       <c r="Y15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>48.03</v>
@@ -7486,27 +7303,27 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>9.120000000000001</v>
+        <v>2001.250230720028</v>
       </c>
       <c r="W16">
-        <v>2001.250230720028</v>
-      </c>
-      <c r="X16">
         <v>925</v>
       </c>
+      <c r="X16" t="s">
+        <v>62</v>
+      </c>
       <c r="Y16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>52.98</v>
@@ -7563,27 +7380,27 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>8.84</v>
+        <v>6537.952010679218</v>
       </c>
       <c r="W17">
-        <v>6537.952010679218</v>
-      </c>
-      <c r="X17">
         <v>925</v>
       </c>
+      <c r="X17" t="s">
+        <v>62</v>
+      </c>
       <c r="Y17" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>44.61</v>
@@ -7640,16 +7457,16 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>5.67</v>
+        <v>2040.839003783563</v>
       </c>
       <c r="W18">
-        <v>2040.839003783563</v>
-      </c>
-      <c r="X18">
         <v>925</v>
       </c>
+      <c r="X18" t="s">
+        <v>62</v>
+      </c>
       <c r="Y18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -7659,15 +7476,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7730,39 +7547,36 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>48.2492073388727</v>
@@ -7819,36 +7633,33 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>2.162535196582507</v>
+        <v>70</v>
       </c>
       <c r="W2">
-        <v>70</v>
+        <v>0.5255526027947111</v>
       </c>
       <c r="X2">
-        <v>0.5255526027947111</v>
+        <v>0.474447397205289</v>
       </c>
       <c r="Y2">
-        <v>0.474447397205289</v>
+        <v>0.000710313505212526</v>
       </c>
       <c r="Z2">
-        <v>0.000710313505212526</v>
-      </c>
-      <c r="AA2">
         <v>0.0007970246477612471</v>
       </c>
-      <c r="AB2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AA2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>48.2956914301173</v>
@@ -7905,36 +7716,33 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>2.641525904052477</v>
+        <v>130</v>
       </c>
       <c r="W3">
-        <v>130</v>
+        <v>0.281991343141063</v>
       </c>
       <c r="X3">
-        <v>0.281991343141063</v>
+        <v>0.718008656858937</v>
       </c>
       <c r="Y3">
-        <v>0.718008656858937</v>
+        <v>0.000449052560226866</v>
       </c>
       <c r="Z3">
-        <v>0.000449052560226866</v>
-      </c>
-      <c r="AA3">
         <v>0.0005043495219162316</v>
       </c>
-      <c r="AB3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AA3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>49.1240791972564</v>
@@ -7991,36 +7799,33 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>2.398375100984727</v>
+        <v>110</v>
       </c>
       <c r="W4">
-        <v>110</v>
+        <v>0.344636020766869</v>
       </c>
       <c r="X4">
-        <v>0.344636020766869</v>
+        <v>0.6553639792331311</v>
       </c>
       <c r="Y4">
-        <v>0.6553639792331311</v>
+        <v>0.000370295987013178</v>
       </c>
       <c r="Z4">
-        <v>0.000370295987013178</v>
-      </c>
-      <c r="AA4">
         <v>0.0004153968496402641</v>
       </c>
-      <c r="AB4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>47.96</v>
@@ -8076,25 +7881,22 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>2.16</v>
+      <c r="AA5" t="s">
+        <v>56</v>
       </c>
       <c r="AB5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>49.64</v>
@@ -8150,25 +7952,22 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>2.19</v>
+      <c r="AA6" t="s">
+        <v>56</v>
       </c>
       <c r="AB6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>50.32</v>
@@ -8224,25 +8023,22 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>2.04</v>
+      <c r="AA7" t="s">
+        <v>56</v>
       </c>
       <c r="AB7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>62.6</v>
@@ -8299,36 +8095,33 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>5.66</v>
+        <v>560</v>
       </c>
       <c r="W8">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.0229218201730244</v>
       </c>
       <c r="Z8">
-        <v>0.0229218201730244</v>
-      </c>
-      <c r="AA8">
         <v>0.02260088756953697</v>
       </c>
-      <c r="AB8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>62.6</v>
@@ -8385,36 +8178,33 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>5.66</v>
+        <v>1560</v>
       </c>
       <c r="W9">
-        <v>1560</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.00331537948576009</v>
       </c>
       <c r="Z9">
-        <v>0.00331537948576009</v>
-      </c>
-      <c r="AA9">
         <v>0.00319308435496494</v>
       </c>
-      <c r="AB9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AA9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>62.6</v>
@@ -8471,36 +8261,33 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>5.66</v>
+        <v>2390</v>
       </c>
       <c r="W10">
-        <v>2390</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.0186879012611822</v>
       </c>
       <c r="Z10">
-        <v>0.0186879012611822</v>
-      </c>
-      <c r="AA10">
         <v>0.01770358209661062</v>
       </c>
-      <c r="AB10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AA10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>76.9748797434527</v>
@@ -8556,25 +8343,22 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>1.272047033671834</v>
+      <c r="AA11" t="s">
+        <v>56</v>
       </c>
       <c r="AB11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>76.9438448701072</v>
@@ -8630,25 +8414,22 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1.311799841754696</v>
+      <c r="AA12" t="s">
+        <v>56</v>
       </c>
       <c r="AB12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>77.18720482277639</v>
@@ -8704,25 +8485,22 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>1.297124701290296</v>
+      <c r="AA13" t="s">
+        <v>56</v>
       </c>
       <c r="AB13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>75.4139659380119</v>
@@ -8778,25 +8556,22 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>8.83150186153892</v>
+      <c r="AA14" t="s">
+        <v>56</v>
       </c>
       <c r="AB14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>76.61358570474</v>
@@ -8852,25 +8627,22 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>8.25677133100881</v>
+      <c r="AA15" t="s">
+        <v>56</v>
       </c>
       <c r="AB15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>48.03</v>
@@ -8927,36 +8699,33 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>9.120000000000001</v>
+        <v>1270</v>
       </c>
       <c r="W16">
-        <v>1270</v>
+        <v>0.224500549616884</v>
       </c>
       <c r="X16">
-        <v>0.224500549616884</v>
+        <v>0.775499450383116</v>
       </c>
       <c r="Y16">
-        <v>0.775499450383116</v>
+        <v>4.19480086802028e-05</v>
       </c>
       <c r="Z16">
-        <v>4.19480086802028e-05</v>
-      </c>
-      <c r="AA16">
         <v>4.130782008453284e-05</v>
       </c>
-      <c r="AB16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>52.98</v>
@@ -9013,36 +8782,33 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>8.84</v>
+        <v>4740</v>
       </c>
       <c r="W17">
-        <v>4740</v>
+        <v>0.441496429223007</v>
       </c>
       <c r="X17">
-        <v>0.441496429223007</v>
+        <v>0.558503570776993</v>
       </c>
       <c r="Y17">
-        <v>0.558503570776993</v>
+        <v>0.000345243695797992</v>
       </c>
       <c r="Z17">
-        <v>0.000345243695797992</v>
-      </c>
-      <c r="AA17">
         <v>0.0003285097382416988</v>
       </c>
-      <c r="AB17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AA17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>44.61</v>
@@ -9099,25 +8865,22 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>5.67</v>
+        <v>1530</v>
       </c>
       <c r="W18">
-        <v>1530</v>
+        <v>0.6732106044221819</v>
       </c>
       <c r="X18">
-        <v>0.6732106044221819</v>
+        <v>0.326789395577818</v>
       </c>
       <c r="Y18">
-        <v>0.326789395577818</v>
+        <v>0.00326380207374009</v>
       </c>
       <c r="Z18">
-        <v>0.00326380207374009</v>
-      </c>
-      <c r="AA18">
         <v>0.003168644510446868</v>
       </c>
-      <c r="AB18" t="s">
-        <v>57</v>
+      <c r="AA18" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -1759,58 +1759,58 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -1844,59 +1844,59 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="C2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="D2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="I2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="M2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="N2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="O2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="P2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="Q2">
+        <v>0.002873020370883501</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -1927,59 +1927,59 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="C3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="D3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="I3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="M3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="N3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="O3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="P3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="Q3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
       </c>
       <c r="T3">
         <v>128</v>
@@ -2010,59 +2010,59 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="C4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="D4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="I4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="M4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="N4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="O4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="P4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="Q4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -2093,59 +2093,59 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>47.96</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>18.77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.92</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>6.86</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.23</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
+        <v>0.21</v>
+      </c>
+      <c r="O5">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.0479</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
       </c>
       <c r="T5">
         <v>2000</v>
@@ -2176,59 +2176,59 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>49.64</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>18.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10.54</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>6.43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.09</v>
+      </c>
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>5.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1113</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -2259,59 +2259,59 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>50.32</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>18.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.11</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>5.65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.78</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.23</v>
+      </c>
+      <c r="P7">
+        <v>5.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.0437</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
       </c>
       <c r="T7">
         <v>2000</v>
@@ -2342,59 +2342,59 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+      <c r="B8">
+        <v>62.6</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F8">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2.01</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N8">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
       <c r="T8">
         <v>703</v>
@@ -2425,59 +2425,59 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+      <c r="B9">
+        <v>62.6</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
       </c>
       <c r="D9">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2.01</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N9">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>5.03</v>
       </c>
       <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
       </c>
       <c r="T9">
         <v>1865</v>
@@ -2508,59 +2508,59 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>62.6</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2.01</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>6.76</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
       </c>
       <c r="T10">
         <v>2985</v>
@@ -2591,59 +2591,59 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="C11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="D11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="M11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="N11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.34</v>
+      </c>
+      <c r="Q11">
+        <v>0.007</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -2674,59 +2674,59 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="C12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="D12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="M12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="N12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.0123</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="S12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -2757,59 +2757,59 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="C13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="D13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="M13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="N13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="Q13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -2840,59 +2840,59 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="C14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="D14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="H14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="I14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="M14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="N14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.94375</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
       </c>
       <c r="T14">
         <v>300</v>
@@ -2923,59 +2923,59 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="C15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="D15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="H15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="I15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="M15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="N15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.34</v>
+      </c>
+      <c r="Q15">
+        <v>0.008</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -3006,59 +3006,59 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>48.03</v>
+      </c>
+      <c r="C16">
+        <v>2.84</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>9.6</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.57</v>
+      </c>
+      <c r="M16">
+        <v>6.04</v>
+      </c>
+      <c r="N16">
+        <v>3.08</v>
+      </c>
+      <c r="O16">
+        <v>1.41</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>0.1298</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
       </c>
       <c r="T16">
         <v>1500</v>
@@ -3089,59 +3089,59 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>52.98</v>
+      </c>
+      <c r="C17">
+        <v>2.18</v>
+      </c>
+      <c r="D17">
+        <v>20.49</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5.54</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.1</v>
+      </c>
+      <c r="M17">
+        <v>5.68</v>
+      </c>
+      <c r="N17">
+        <v>3.16</v>
+      </c>
+      <c r="O17">
+        <v>0.66</v>
+      </c>
+      <c r="P17">
+        <v>4.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.3439</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
       </c>
       <c r="T17">
         <v>4000</v>
@@ -3172,59 +3172,59 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>44.61</v>
+      </c>
+      <c r="C18">
+        <v>4.37</v>
+      </c>
+      <c r="D18">
+        <v>14.41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+      <c r="I18">
+        <v>7.69</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11.55</v>
+      </c>
+      <c r="M18">
+        <v>3.93</v>
+      </c>
+      <c r="N18">
+        <v>1.74</v>
+      </c>
+      <c r="O18">
+        <v>0.92</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.1131</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
       </c>
       <c r="T18">
         <v>1500</v>

--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="65">
   <si>
     <t>CITATION</t>
   </si>
@@ -695,7 +695,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="S2">
-        <v>0.002873020370883501</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -1890,7 +1890,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0.002873020370883501</v>
+        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -3266,58 +3266,58 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -3348,59 +3348,59 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="C2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="D2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="I2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="M2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="N2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="O2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="P2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -3409,7 +3409,7 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -3422,68 +3422,65 @@
       </c>
       <c r="Z2" t="s">
         <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="C3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="D3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="I3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="M3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="N3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="O3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="P3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="Q3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
       </c>
       <c r="T3">
         <v>128</v>
@@ -3514,59 +3511,59 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="C4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="D4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="I4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="M4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="N4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="O4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="P4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="Q4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -3597,59 +3594,59 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>47.96</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>18.77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.92</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>6.86</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.23</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
+        <v>0.21</v>
+      </c>
+      <c r="O5">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.0479</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
       </c>
       <c r="T5">
         <v>2000</v>
@@ -3677,59 +3674,59 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>49.64</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>18.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10.54</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>6.43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.09</v>
+      </c>
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>5.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1113</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -3757,59 +3754,59 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>50.32</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>18.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.11</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>5.65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.78</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.23</v>
+      </c>
+      <c r="P7">
+        <v>5.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.0437</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
       </c>
       <c r="T7">
         <v>2000</v>
@@ -3837,59 +3834,59 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+      <c r="B8">
+        <v>62.6</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F8">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2.01</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N8">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
       <c r="T8">
         <v>703</v>
@@ -3917,59 +3914,59 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+      <c r="B9">
+        <v>62.6</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
       </c>
       <c r="D9">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2.01</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N9">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>5.03</v>
       </c>
       <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
       </c>
       <c r="T9">
         <v>1865</v>
@@ -3997,59 +3994,59 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>62.6</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2.01</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>6.76</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
       </c>
       <c r="T10">
         <v>2985</v>
@@ -4077,59 +4074,59 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="C11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="D11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="M11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="N11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.34</v>
+      </c>
+      <c r="Q11">
+        <v>0.007</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -4157,59 +4154,59 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="C12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="D12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="M12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="N12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.0123</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="S12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -4237,59 +4234,59 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="C13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="D13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="M13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="N13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="Q13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -4317,59 +4314,59 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="C14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="D14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="H14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="I14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="M14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="N14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.94375</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
       </c>
       <c r="T14">
         <v>300</v>
@@ -4397,59 +4394,59 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="C15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="D15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="H15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="I15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="M15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="N15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.34</v>
+      </c>
+      <c r="Q15">
+        <v>0.008</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -4477,59 +4474,59 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>48.03</v>
+      </c>
+      <c r="C16">
+        <v>2.84</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>9.6</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.57</v>
+      </c>
+      <c r="M16">
+        <v>6.04</v>
+      </c>
+      <c r="N16">
+        <v>3.08</v>
+      </c>
+      <c r="O16">
+        <v>1.41</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>0.1298</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
       </c>
       <c r="T16">
         <v>1500</v>
@@ -4557,59 +4554,59 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>52.98</v>
+      </c>
+      <c r="C17">
+        <v>2.18</v>
+      </c>
+      <c r="D17">
+        <v>20.49</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5.54</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.1</v>
+      </c>
+      <c r="M17">
+        <v>5.68</v>
+      </c>
+      <c r="N17">
+        <v>3.16</v>
+      </c>
+      <c r="O17">
+        <v>0.66</v>
+      </c>
+      <c r="P17">
+        <v>4.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.3439</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
       </c>
       <c r="T17">
         <v>4000</v>
@@ -4637,59 +4634,59 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>44.61</v>
+      </c>
+      <c r="C18">
+        <v>4.37</v>
+      </c>
+      <c r="D18">
+        <v>14.41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+      <c r="I18">
+        <v>7.69</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11.55</v>
+      </c>
+      <c r="M18">
+        <v>3.93</v>
+      </c>
+      <c r="N18">
+        <v>1.74</v>
+      </c>
+      <c r="O18">
+        <v>0.92</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.1131</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
       </c>
       <c r="T18">
         <v>1500</v>
@@ -4728,58 +4725,58 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -4804,59 +4801,59 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="C2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="D2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="I2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="M2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="N2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="O2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="P2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -4865,10 +4862,10 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>0.586163616167993</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.413836383832007</v>
+        <v>0</v>
       </c>
       <c r="X2" t="s">
         <v>56</v>
@@ -4878,59 +4875,59 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="C3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="D3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="I3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="M3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="N3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="O3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="P3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="Q3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
       </c>
       <c r="T3">
         <v>128</v>
@@ -4952,59 +4949,59 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="C4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="D4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="I4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="M4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="N4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="O4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="P4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="Q4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -5026,59 +5023,59 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>47.96</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>18.77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.92</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>6.86</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.23</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
+        <v>0.21</v>
+      </c>
+      <c r="O5">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.0479</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
       </c>
       <c r="T5">
         <v>2000</v>
@@ -5100,59 +5097,59 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>49.64</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>18.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10.54</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>6.43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.09</v>
+      </c>
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>5.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1113</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -5174,59 +5171,59 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>50.32</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>18.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.11</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>5.65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.78</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.23</v>
+      </c>
+      <c r="P7">
+        <v>5.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.0437</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
       </c>
       <c r="T7">
         <v>2000</v>
@@ -5248,59 +5245,59 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+      <c r="B8">
+        <v>62.6</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F8">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2.01</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N8">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
       <c r="T8">
         <v>703</v>
@@ -5322,59 +5319,59 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+      <c r="B9">
+        <v>62.6</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
       </c>
       <c r="D9">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2.01</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N9">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>5.03</v>
       </c>
       <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
       </c>
       <c r="T9">
         <v>1865</v>
@@ -5396,59 +5393,59 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>62.6</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2.01</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>6.76</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
       </c>
       <c r="T10">
         <v>2985</v>
@@ -5470,59 +5467,59 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="C11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="D11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="M11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="N11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.34</v>
+      </c>
+      <c r="Q11">
+        <v>0.007</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -5544,59 +5541,59 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="C12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="D12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="M12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="N12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.0123</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="S12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -5618,59 +5615,59 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="C13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="D13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="M13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="N13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="Q13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -5692,59 +5689,59 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="C14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="D14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="H14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="I14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="M14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="N14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.94375</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
       </c>
       <c r="T14">
         <v>300</v>
@@ -5763,59 +5760,59 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="C15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="D15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="H15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="I15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="M15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="N15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.34</v>
+      </c>
+      <c r="Q15">
+        <v>0.008</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -5834,59 +5831,59 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>48.03</v>
+      </c>
+      <c r="C16">
+        <v>2.84</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>9.6</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.57</v>
+      </c>
+      <c r="M16">
+        <v>6.04</v>
+      </c>
+      <c r="N16">
+        <v>3.08</v>
+      </c>
+      <c r="O16">
+        <v>1.41</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>0.1298</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
       </c>
       <c r="T16">
         <v>1500</v>
@@ -5911,59 +5908,59 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>52.98</v>
+      </c>
+      <c r="C17">
+        <v>2.18</v>
+      </c>
+      <c r="D17">
+        <v>20.49</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5.54</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.1</v>
+      </c>
+      <c r="M17">
+        <v>5.68</v>
+      </c>
+      <c r="N17">
+        <v>3.16</v>
+      </c>
+      <c r="O17">
+        <v>0.66</v>
+      </c>
+      <c r="P17">
+        <v>4.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.3439</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
       </c>
       <c r="T17">
         <v>4000</v>
@@ -5985,59 +5982,59 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>44.61</v>
+      </c>
+      <c r="C18">
+        <v>4.37</v>
+      </c>
+      <c r="D18">
+        <v>14.41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+      <c r="I18">
+        <v>7.69</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11.55</v>
+      </c>
+      <c r="M18">
+        <v>3.93</v>
+      </c>
+      <c r="N18">
+        <v>1.74</v>
+      </c>
+      <c r="O18">
+        <v>0.92</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.1131</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
       </c>
       <c r="T18">
         <v>1500</v>
@@ -6070,58 +6067,58 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -6158,59 +6155,59 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="C2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="D2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="I2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="M2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="N2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="O2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="P2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -6219,22 +6216,22 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W2">
         <v>925</v>
       </c>
       <c r="X2">
-        <v>0.439591611669226</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.560408388330774</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.61580552348504e-05</v>
+        <v>0.0689581288685595</v>
       </c>
       <c r="AA2">
-        <v>2.935128588529089e-05</v>
+        <v>0.06895812886855952</v>
       </c>
       <c r="AB2" t="s">
         <v>56</v>
@@ -6244,59 +6241,59 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="C3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="D3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="I3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="M3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="N3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="O3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="P3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="Q3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
       </c>
       <c r="T3">
         <v>128</v>
@@ -6305,22 +6302,22 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="W3">
         <v>925</v>
       </c>
       <c r="X3">
-        <v>0.248725422825502</v>
+        <v>0.215529046650687</v>
       </c>
       <c r="Y3">
-        <v>0.751274577174498</v>
+        <v>0.7844709533493121</v>
       </c>
       <c r="Z3">
-        <v>0.000619853470039966</v>
+        <v>3.75646222415579e-05</v>
       </c>
       <c r="AA3">
-        <v>0.0006961830951700479</v>
+        <v>3.756462224155789e-05</v>
       </c>
       <c r="AB3" t="s">
         <v>56</v>
@@ -6330,59 +6327,59 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="C4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="D4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="I4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="M4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="N4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="O4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="P4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="Q4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -6391,22 +6388,22 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="W4">
         <v>925</v>
       </c>
       <c r="X4">
-        <v>0.303411591026626</v>
+        <v>0.29235352352064</v>
       </c>
       <c r="Y4">
-        <v>0.696588408973374</v>
+        <v>0.70764647647936</v>
       </c>
       <c r="Z4">
-        <v>0.000331979329617607</v>
+        <v>0.000634775486311526</v>
       </c>
       <c r="AA4">
-        <v>0.0003724133463642777</v>
+        <v>0.0006347754863115258</v>
       </c>
       <c r="AB4" t="s">
         <v>56</v>
@@ -6416,59 +6413,59 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>47.96</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>18.77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.92</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>6.86</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.23</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
+        <v>0.21</v>
+      </c>
+      <c r="O5">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.0479</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
       </c>
       <c r="T5">
         <v>2000</v>
@@ -6477,22 +6474,22 @@
         <v>1200</v>
       </c>
       <c r="V5">
-        <v>2370</v>
+        <v>2500</v>
       </c>
       <c r="W5">
         <v>925</v>
       </c>
       <c r="X5">
-        <v>0.785442908094257</v>
+        <v>0.796513677120962</v>
       </c>
       <c r="Y5">
-        <v>0.214557091905743</v>
+        <v>0.203486322879038</v>
       </c>
       <c r="Z5">
-        <v>0.00127683912552308</v>
+        <v>0.00123226570304335</v>
       </c>
       <c r="AA5">
-        <v>0.001221295813233048</v>
+        <v>0.00123226570304335</v>
       </c>
       <c r="AB5" t="s">
         <v>56</v>
@@ -6502,59 +6499,59 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>49.64</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>18.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10.54</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>6.43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.09</v>
+      </c>
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>5.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1113</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -6563,22 +6560,22 @@
         <v>1200</v>
       </c>
       <c r="V6">
-        <v>3430</v>
+        <v>3600</v>
       </c>
       <c r="W6">
         <v>925</v>
       </c>
       <c r="X6">
-        <v>0.685666404116806</v>
+        <v>0.702654420007893</v>
       </c>
       <c r="Y6">
-        <v>0.314333595883194</v>
+        <v>0.297345579992107</v>
       </c>
       <c r="Z6">
-        <v>0.000226197557875874</v>
+        <v>0.00079705985222716</v>
       </c>
       <c r="AA6">
-        <v>0.0002149731640607693</v>
+        <v>0.0007970598522271605</v>
       </c>
       <c r="AB6" t="s">
         <v>56</v>
@@ -6588,59 +6585,59 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>50.32</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>18.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.11</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>5.65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.78</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.23</v>
+      </c>
+      <c r="P7">
+        <v>5.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.0437</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
       </c>
       <c r="T7">
         <v>2000</v>
@@ -6649,22 +6646,22 @@
         <v>1200</v>
       </c>
       <c r="V7">
-        <v>2580</v>
+        <v>2750</v>
       </c>
       <c r="W7">
         <v>925</v>
       </c>
       <c r="X7">
-        <v>0.825857563993701</v>
+        <v>0.836894576666795</v>
       </c>
       <c r="Y7">
-        <v>0.174142436006299</v>
+        <v>0.163105423333205</v>
       </c>
       <c r="Z7">
-        <v>0.00089858316081711</v>
+        <v>0.000226271338451074</v>
       </c>
       <c r="AA7">
-        <v>0.0008536496064807825</v>
+        <v>0.0002262713384510739</v>
       </c>
       <c r="AB7" t="s">
         <v>56</v>
@@ -6674,59 +6671,59 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+      <c r="B8">
+        <v>62.6</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F8">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2.01</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N8">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
       <c r="T8">
         <v>703</v>
@@ -6735,7 +6732,7 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="W8">
         <v>925</v>
@@ -6747,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.00519748886520073</v>
+        <v>0.0129029986829266</v>
       </c>
       <c r="AA8">
-        <v>0.005124717871426464</v>
+        <v>0.01290299868292659</v>
       </c>
       <c r="AB8" t="s">
         <v>56</v>
@@ -6760,59 +6757,59 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+      <c r="B9">
+        <v>62.6</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
       </c>
       <c r="D9">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2.01</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N9">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>5.03</v>
       </c>
       <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
       </c>
       <c r="T9">
         <v>1865</v>
@@ -6821,7 +6818,7 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>1490</v>
+        <v>1590</v>
       </c>
       <c r="W9">
         <v>925</v>
@@ -6833,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.0157440183310254</v>
+        <v>0.00105217920776629</v>
       </c>
       <c r="AA9">
-        <v>0.01516326527114071</v>
+        <v>0.00105217920776629</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
@@ -6846,59 +6843,59 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>62.6</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2.01</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>6.76</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
       </c>
       <c r="T10">
         <v>2985</v>
@@ -6907,7 +6904,7 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>2340</v>
+        <v>2540</v>
       </c>
       <c r="W10">
         <v>925</v>
@@ -6919,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.000980877905016012</v>
+        <v>0.0160925216776623</v>
       </c>
       <c r="AA10">
-        <v>0.0009292136273361234</v>
+        <v>0.01609252167766231</v>
       </c>
       <c r="AB10" t="s">
         <v>56</v>
@@ -6932,59 +6929,59 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="C11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="D11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="M11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="N11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.34</v>
+      </c>
+      <c r="Q11">
+        <v>0.007</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -6993,22 +6990,22 @@
         <v>900</v>
       </c>
       <c r="V11">
-        <v>1030</v>
+        <v>1100</v>
       </c>
       <c r="W11">
         <v>925</v>
       </c>
       <c r="X11">
-        <v>0.970939011675946</v>
+        <v>0.972472424256134</v>
       </c>
       <c r="Y11">
-        <v>0.0290609883240535</v>
+        <v>0.0275275757438659</v>
       </c>
       <c r="Z11">
-        <v>0.00553856566233667</v>
+        <v>0.007924265844899119</v>
       </c>
       <c r="AA11">
-        <v>0.005308377912012164</v>
+        <v>0.007924265844899111</v>
       </c>
       <c r="AB11" t="s">
         <v>56</v>
@@ -7018,59 +7015,59 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="C12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="D12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="M12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="N12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.0123</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="S12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -7079,22 +7076,22 @@
         <v>900</v>
       </c>
       <c r="V12">
-        <v>1640</v>
+        <v>1790</v>
       </c>
       <c r="W12">
         <v>925</v>
       </c>
       <c r="X12">
-        <v>0.970539789619136</v>
+        <v>0.972874630367114</v>
       </c>
       <c r="Y12">
-        <v>0.0294602103808637</v>
+        <v>0.0271253696328862</v>
       </c>
       <c r="Z12">
-        <v>0.0031927698141612</v>
+        <v>0.00667100825932183</v>
       </c>
       <c r="AA12">
-        <v>0.003015965133539544</v>
+        <v>0.006671008259321829</v>
       </c>
       <c r="AB12" t="s">
         <v>56</v>
@@ -7104,59 +7101,59 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="C13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="D13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="M13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="N13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="Q13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -7165,22 +7162,22 @@
         <v>900</v>
       </c>
       <c r="V13">
-        <v>1590</v>
+        <v>1730</v>
       </c>
       <c r="W13">
         <v>925</v>
       </c>
       <c r="X13">
-        <v>0.972951795730892</v>
+        <v>0.97561394228405</v>
       </c>
       <c r="Y13">
-        <v>0.0270482042691076</v>
+        <v>0.0243860577159497</v>
       </c>
       <c r="Z13">
-        <v>0.000828382544233984</v>
+        <v>0.008636970211907451</v>
       </c>
       <c r="AA13">
-        <v>0.0007832272933259711</v>
+        <v>0.008636970211907449</v>
       </c>
       <c r="AB13" t="s">
         <v>56</v>
@@ -7190,59 +7187,59 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="C14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="D14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="H14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="I14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="M14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="N14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.94375</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
       </c>
       <c r="T14">
         <v>300</v>
@@ -7251,22 +7248,22 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1920</v>
+        <v>2090</v>
       </c>
       <c r="W14">
         <v>925</v>
       </c>
       <c r="X14">
-        <v>0.946905491880807</v>
+        <v>0.951891002202502</v>
       </c>
       <c r="Y14">
-        <v>0.0530945081191929</v>
+        <v>0.048108997797498</v>
       </c>
       <c r="Z14">
-        <v>0.00108503202217549</v>
+        <v>0.00294119534061353</v>
       </c>
       <c r="AA14">
-        <v>0.001025539692774954</v>
+        <v>0.002941195340613532</v>
       </c>
       <c r="AB14" t="s">
         <v>56</v>
@@ -7276,59 +7273,59 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="C15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="D15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="H15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="I15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="M15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="N15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.34</v>
+      </c>
+      <c r="Q15">
+        <v>0.008</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -7337,22 +7334,22 @@
         <v>900</v>
       </c>
       <c r="V15">
-        <v>1600</v>
+        <v>1730</v>
       </c>
       <c r="W15">
         <v>925</v>
       </c>
       <c r="X15">
-        <v>0.94701509860911</v>
+        <v>0.950741498987455</v>
       </c>
       <c r="Y15">
-        <v>0.0529849013908898</v>
+        <v>0.0492585010125445</v>
       </c>
       <c r="Z15">
-        <v>0.00223030144997631</v>
+        <v>0.00286390060466055</v>
       </c>
       <c r="AA15">
-        <v>0.002120428379416106</v>
+        <v>0.002863900604660548</v>
       </c>
       <c r="AB15" t="s">
         <v>56</v>
@@ -7362,59 +7359,59 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>48.03</v>
+      </c>
+      <c r="C16">
+        <v>2.84</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>9.6</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.57</v>
+      </c>
+      <c r="M16">
+        <v>6.04</v>
+      </c>
+      <c r="N16">
+        <v>3.08</v>
+      </c>
+      <c r="O16">
+        <v>1.41</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>0.1298</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
       </c>
       <c r="T16">
         <v>1500</v>
@@ -7423,22 +7420,22 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="W16">
         <v>925</v>
       </c>
       <c r="X16">
-        <v>0.229038902482197</v>
+        <v>0.231707821016213</v>
       </c>
       <c r="Y16">
-        <v>0.770961097517803</v>
+        <v>0.768292178983787</v>
       </c>
       <c r="Z16">
-        <v>0.000321505349513976</v>
+        <v>9.309173835698601e-05</v>
       </c>
       <c r="AA16">
-        <v>0.0003165987028177087</v>
+        <v>9.309173835698606e-05</v>
       </c>
       <c r="AB16" t="s">
         <v>56</v>
@@ -7448,59 +7445,59 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>52.98</v>
+      </c>
+      <c r="C17">
+        <v>2.18</v>
+      </c>
+      <c r="D17">
+        <v>20.49</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5.54</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.1</v>
+      </c>
+      <c r="M17">
+        <v>5.68</v>
+      </c>
+      <c r="N17">
+        <v>3.16</v>
+      </c>
+      <c r="O17">
+        <v>0.66</v>
+      </c>
+      <c r="P17">
+        <v>4.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.3439</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
       </c>
       <c r="T17">
         <v>4000</v>
@@ -7509,22 +7506,22 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>4640</v>
+        <v>4800</v>
       </c>
       <c r="W17">
         <v>925</v>
       </c>
       <c r="X17">
-        <v>0.439714139562783</v>
+        <v>0.456749735218006</v>
       </c>
       <c r="Y17">
-        <v>0.560285860437217</v>
+        <v>0.543250264781994</v>
       </c>
       <c r="Z17">
-        <v>0.000410520218515687</v>
+        <v>0.000938033056325138</v>
       </c>
       <c r="AA17">
-        <v>0.0003906223087312288</v>
+        <v>0.0009380330563251388</v>
       </c>
       <c r="AB17" t="s">
         <v>56</v>
@@ -7534,59 +7531,59 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>44.61</v>
+      </c>
+      <c r="C18">
+        <v>4.37</v>
+      </c>
+      <c r="D18">
+        <v>14.41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+      <c r="I18">
+        <v>7.69</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11.55</v>
+      </c>
+      <c r="M18">
+        <v>3.93</v>
+      </c>
+      <c r="N18">
+        <v>1.74</v>
+      </c>
+      <c r="O18">
+        <v>0.92</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.1131</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
       </c>
       <c r="T18">
         <v>1500</v>
@@ -7595,22 +7592,22 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>1450</v>
+        <v>1510</v>
       </c>
       <c r="W18">
         <v>925</v>
       </c>
       <c r="X18">
-        <v>0.678808446720959</v>
+        <v>0.684728944146793</v>
       </c>
       <c r="Y18">
-        <v>0.321191553279041</v>
+        <v>0.315271055853207</v>
       </c>
       <c r="Z18">
-        <v>0.00297237431600496</v>
+        <v>0.000430867551518525</v>
       </c>
       <c r="AA18">
-        <v>0.00288571345523092</v>
+        <v>0.0004308675515185249</v>
       </c>
       <c r="AB18" t="s">
         <v>56</v>
@@ -7631,58 +7628,58 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>18</v>
@@ -7716,59 +7713,59 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>48.2492073388727</v>
+      </c>
+      <c r="C2">
+        <v>2.22211385404349</v>
+      </c>
+      <c r="D2">
+        <v>11.6921940392032</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.0799988314202061</v>
+      </c>
+      <c r="I2">
+        <v>14.1838165358568</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>9.89273186356637</v>
+      </c>
+      <c r="M2">
+        <v>1.81052154253552</v>
+      </c>
+      <c r="N2">
+        <v>0.352013654046987</v>
+      </c>
+      <c r="O2">
+        <v>0.210479390362178</v>
+      </c>
+      <c r="P2">
+        <v>0.4246947187776288</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2">
-        <v>48.2492073388727</v>
-      </c>
-      <c r="E2">
-        <v>2.22211385404349</v>
-      </c>
-      <c r="F2">
-        <v>11.6921940392032</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.0799988314202061</v>
-      </c>
-      <c r="K2">
-        <v>14.1838165358568</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>9.89273186356637</v>
-      </c>
-      <c r="O2">
-        <v>1.81052154253552</v>
-      </c>
-      <c r="P2">
-        <v>0.352013654046987</v>
-      </c>
-      <c r="Q2">
-        <v>0.210479390362178</v>
-      </c>
-      <c r="R2">
-        <v>0.4246947187776288</v>
-      </c>
-      <c r="S2">
-        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -7777,19 +7774,19 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="W2">
-        <v>0.5255526027947111</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.474447397205289</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000710313505212526</v>
+        <v>0.0777634607490745</v>
       </c>
       <c r="Z2">
-        <v>0.0007970246477612471</v>
+        <v>0.07776346074907453</v>
       </c>
       <c r="AA2" t="s">
         <v>56</v>
@@ -7799,59 +7796,59 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>48.2956914301173</v>
+      </c>
+      <c r="C3">
+        <v>2.16535749123189</v>
+      </c>
+      <c r="D3">
+        <v>11.7555842002198</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.08404493440252241</v>
+      </c>
+      <c r="I3">
+        <v>13.403979652898</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>10.0525777926129</v>
+      </c>
+      <c r="M3">
+        <v>2.26819812005229</v>
+      </c>
+      <c r="N3">
+        <v>0.373327784000187</v>
+      </c>
+      <c r="O3">
+        <v>0.204452497579727</v>
+      </c>
+      <c r="P3">
+        <v>0.4259837834222454</v>
+      </c>
+      <c r="Q3">
+        <v>0.006786430337147899</v>
+      </c>
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>48.2956914301173</v>
-      </c>
-      <c r="E3">
-        <v>2.16535749123189</v>
-      </c>
-      <c r="F3">
-        <v>11.7555842002198</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.08404493440252241</v>
-      </c>
-      <c r="K3">
-        <v>13.403979652898</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>10.0525777926129</v>
-      </c>
-      <c r="O3">
-        <v>2.26819812005229</v>
-      </c>
-      <c r="P3">
-        <v>0.373327784000187</v>
-      </c>
-      <c r="Q3">
-        <v>0.204452497579727</v>
-      </c>
-      <c r="R3">
-        <v>0.4259837834222454</v>
-      </c>
-      <c r="S3">
-        <v>0.006786430337147899</v>
       </c>
       <c r="T3">
         <v>128</v>
@@ -7860,19 +7857,19 @@
         <v>1283.41999102325</v>
       </c>
       <c r="V3">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="W3">
-        <v>0.281991343141063</v>
+        <v>0.266594556601601</v>
       </c>
       <c r="X3">
-        <v>0.718008656858937</v>
+        <v>0.733405443398399</v>
       </c>
       <c r="Y3">
-        <v>0.000449052560226866</v>
+        <v>0.000699690453581191</v>
       </c>
       <c r="Z3">
-        <v>0.0005043495219162316</v>
+        <v>0.000699690453581191</v>
       </c>
       <c r="AA3" t="s">
         <v>56</v>
@@ -7882,59 +7879,59 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>49.1240791972564</v>
+      </c>
+      <c r="C4">
+        <v>2.36098425857992</v>
+      </c>
+      <c r="D4">
+        <v>12.1728325512416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.0988087330759878</v>
+      </c>
+      <c r="I4">
+        <v>11.997699453588</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.3081877392399</v>
+      </c>
+      <c r="M4">
+        <v>2.00186324677907</v>
+      </c>
+      <c r="N4">
+        <v>0.396511854205657</v>
+      </c>
+      <c r="O4">
+        <v>0.238996316060337</v>
+      </c>
+      <c r="P4">
+        <v>0.4377576296337298</v>
+      </c>
+      <c r="Q4">
+        <v>0.004983721604329198</v>
+      </c>
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="S4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4">
-        <v>49.1240791972564</v>
-      </c>
-      <c r="E4">
-        <v>2.36098425857992</v>
-      </c>
-      <c r="F4">
-        <v>12.1728325512416</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.0988087330759878</v>
-      </c>
-      <c r="K4">
-        <v>11.997699453588</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>10.3081877392399</v>
-      </c>
-      <c r="O4">
-        <v>2.00186324677907</v>
-      </c>
-      <c r="P4">
-        <v>0.396511854205657</v>
-      </c>
-      <c r="Q4">
-        <v>0.238996316060337</v>
-      </c>
-      <c r="R4">
-        <v>0.4377576296337298</v>
-      </c>
-      <c r="S4">
-        <v>0.004983721604329198</v>
       </c>
       <c r="T4">
         <v>100</v>
@@ -7943,19 +7940,19 @@
         <v>1255.153759017119</v>
       </c>
       <c r="V4">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="W4">
-        <v>0.344636020766869</v>
+        <v>0.337738175466734</v>
       </c>
       <c r="X4">
-        <v>0.6553639792331311</v>
+        <v>0.662261824533266</v>
       </c>
       <c r="Y4">
-        <v>0.000370295987013178</v>
+        <v>0.000807422692520343</v>
       </c>
       <c r="Z4">
-        <v>0.0004153968496402641</v>
+        <v>0.0008074226925203421</v>
       </c>
       <c r="AA4" t="s">
         <v>56</v>
@@ -7965,59 +7962,59 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>47.96</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>18.77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10.92</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+      <c r="I5">
+        <v>6.86</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>12.23</v>
+      </c>
+      <c r="M5">
+        <v>1.95</v>
+      </c>
+      <c r="N5">
+        <v>0.21</v>
+      </c>
+      <c r="O5">
+        <v>0.17</v>
+      </c>
+      <c r="P5">
+        <v>4.5</v>
+      </c>
+      <c r="Q5">
+        <v>0.0479</v>
+      </c>
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5">
-        <v>47.96</v>
-      </c>
-      <c r="E5">
-        <v>0.78</v>
-      </c>
-      <c r="F5">
-        <v>18.77</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10.92</v>
-      </c>
-      <c r="J5">
-        <v>0.15</v>
-      </c>
-      <c r="K5">
-        <v>6.86</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>12.23</v>
-      </c>
-      <c r="O5">
-        <v>1.95</v>
-      </c>
-      <c r="P5">
-        <v>0.21</v>
-      </c>
-      <c r="Q5">
-        <v>0.17</v>
-      </c>
-      <c r="R5">
-        <v>4.5</v>
-      </c>
-      <c r="S5">
-        <v>0.0479</v>
       </c>
       <c r="T5">
         <v>2000</v>
@@ -8026,19 +8023,19 @@
         <v>1200</v>
       </c>
       <c r="V5">
-        <v>2400</v>
+        <v>2540</v>
       </c>
       <c r="W5">
-        <v>0.80703360240626</v>
+        <v>0.817547776604673</v>
       </c>
       <c r="X5">
-        <v>0.19296639759374</v>
+        <v>0.182452223395327</v>
       </c>
       <c r="Y5">
-        <v>0.000291239503191582</v>
+        <v>0.0015319426079297</v>
       </c>
       <c r="Z5">
-        <v>0.0002785703999712873</v>
+        <v>0.0015319426079297</v>
       </c>
       <c r="AA5" t="s">
         <v>56</v>
@@ -8048,59 +8045,59 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>49.64</v>
+      </c>
+      <c r="C6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>18.05</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10.54</v>
+      </c>
+      <c r="H6">
+        <v>0.19</v>
+      </c>
+      <c r="I6">
+        <v>6.43</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12.09</v>
+      </c>
+      <c r="M6">
+        <v>1.99</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>5.1</v>
+      </c>
+      <c r="Q6">
+        <v>0.1113</v>
+      </c>
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="S6" t="s">
         <v>43</v>
-      </c>
-      <c r="D6">
-        <v>49.64</v>
-      </c>
-      <c r="E6">
-        <v>0.71</v>
-      </c>
-      <c r="F6">
-        <v>18.05</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10.54</v>
-      </c>
-      <c r="J6">
-        <v>0.19</v>
-      </c>
-      <c r="K6">
-        <v>6.43</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>12.09</v>
-      </c>
-      <c r="O6">
-        <v>1.99</v>
-      </c>
-      <c r="P6">
-        <v>0.2</v>
-      </c>
-      <c r="Q6">
-        <v>0.17</v>
-      </c>
-      <c r="R6">
-        <v>5.1</v>
-      </c>
-      <c r="S6">
-        <v>0.1113</v>
       </c>
       <c r="T6">
         <v>2000</v>
@@ -8109,19 +8106,19 @@
         <v>1200</v>
       </c>
       <c r="V6">
-        <v>3440</v>
+        <v>3650</v>
       </c>
       <c r="W6">
-        <v>0.710744642271391</v>
+        <v>0.725723552235916</v>
       </c>
       <c r="X6">
-        <v>0.28925535772861</v>
+        <v>0.274276447764084</v>
       </c>
       <c r="Y6">
-        <v>0.000584323590506743</v>
+        <v>0.000669419390646363</v>
       </c>
       <c r="Z6">
-        <v>0.0005553282372549529</v>
+        <v>0.0006694193906463634</v>
       </c>
       <c r="AA6" t="s">
         <v>56</v>
@@ -8131,59 +8128,59 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>50.32</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>18.03</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.11</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>5.65</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>12.78</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>0.24</v>
+      </c>
+      <c r="O7">
+        <v>0.23</v>
+      </c>
+      <c r="P7">
+        <v>5.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.0437</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7">
-        <v>50.32</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>18.03</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10.11</v>
-      </c>
-      <c r="J7">
-        <v>0.14</v>
-      </c>
-      <c r="K7">
-        <v>5.65</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>12.78</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>0.24</v>
-      </c>
-      <c r="Q7">
-        <v>0.23</v>
-      </c>
-      <c r="R7">
-        <v>5.2</v>
-      </c>
-      <c r="S7">
-        <v>0.0437</v>
       </c>
       <c r="T7">
         <v>2000</v>
@@ -8192,19 +8189,19 @@
         <v>1200</v>
       </c>
       <c r="V7">
-        <v>2660</v>
+        <v>2850</v>
       </c>
       <c r="W7">
-        <v>0.84516064456426</v>
+        <v>0.8552141507186199</v>
       </c>
       <c r="X7">
-        <v>0.15483935543574</v>
+        <v>0.14478584928138</v>
       </c>
       <c r="Y7">
-        <v>0.000211824917650151</v>
+        <v>0.000849378234060265</v>
       </c>
       <c r="Z7">
-        <v>0.0002012326354195717</v>
+        <v>0.0008493782340602644</v>
       </c>
       <c r="AA7" t="s">
         <v>56</v>
@@ -8214,59 +8211,59 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+      <c r="B8">
+        <v>62.6</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
       </c>
       <c r="D8">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F8">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>2.01</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N8">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O8">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P8">
-        <v>1.61</v>
+        <v>2.62</v>
       </c>
       <c r="Q8">
-        <v>0.24</v>
-      </c>
-      <c r="R8">
-        <v>2.62</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
       </c>
       <c r="T8">
         <v>703</v>
@@ -8275,7 +8272,7 @@
         <v>1100</v>
       </c>
       <c r="V8">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -8284,10 +8281,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.0229218201730244</v>
+        <v>0.00344178052689819</v>
       </c>
       <c r="Z8">
-        <v>0.02260088756953697</v>
+        <v>0.003441780526898187</v>
       </c>
       <c r="AA8" t="s">
         <v>56</v>
@@ -8297,59 +8294,59 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+      <c r="B9">
+        <v>62.6</v>
+      </c>
+      <c r="C9">
+        <v>0.63</v>
       </c>
       <c r="D9">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F9">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>2.01</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I9">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N9">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P9">
-        <v>1.61</v>
+        <v>5.03</v>
       </c>
       <c r="Q9">
-        <v>0.24</v>
-      </c>
-      <c r="R9">
-        <v>5.03</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
       </c>
       <c r="T9">
         <v>1865</v>
@@ -8358,7 +8355,7 @@
         <v>1100</v>
       </c>
       <c r="V9">
-        <v>1560</v>
+        <v>1650</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -8367,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.00331537948576009</v>
+        <v>0.0152803231983435</v>
       </c>
       <c r="Z9">
-        <v>0.00319308435496494</v>
+        <v>0.01528032319834351</v>
       </c>
       <c r="AA9" t="s">
         <v>56</v>
@@ -8380,59 +8377,59 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="B10">
+        <v>62.6</v>
+      </c>
+      <c r="C10">
+        <v>0.63</v>
       </c>
       <c r="D10">
-        <v>62.6</v>
+        <v>17.3</v>
       </c>
       <c r="E10">
-        <v>0.63</v>
+        <v>2.01</v>
       </c>
       <c r="F10">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2.01</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="J10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="N10">
-        <v>5.64</v>
+        <v>1.61</v>
       </c>
       <c r="O10">
-        <v>4.05</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
-        <v>1.61</v>
+        <v>6.76</v>
       </c>
       <c r="Q10">
-        <v>0.24</v>
-      </c>
-      <c r="R10">
-        <v>6.76</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" t="s">
+        <v>44</v>
       </c>
       <c r="T10">
         <v>2985</v>
@@ -8441,7 +8438,7 @@
         <v>1050</v>
       </c>
       <c r="V10">
-        <v>2390</v>
+        <v>2610</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -8450,10 +8447,10 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.0186879012611822</v>
+        <v>0.008153007612025051</v>
       </c>
       <c r="Z10">
-        <v>0.01770358209661062</v>
+        <v>0.008153007612025049</v>
       </c>
       <c r="AA10" t="s">
         <v>56</v>
@@ -8463,59 +8460,59 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>76.9748797434527</v>
+      </c>
+      <c r="C11">
+        <v>0.085515766969535</v>
+      </c>
+      <c r="D11">
+        <v>3.11063602351684</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>4.78888295029396</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12.5494388027793</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.20791020844468</v>
+      </c>
+      <c r="M11">
+        <v>0.138963121325494</v>
+      </c>
+      <c r="N11">
+        <v>1.13308391234634</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>4.34</v>
+      </c>
+      <c r="Q11">
+        <v>0.007</v>
+      </c>
+      <c r="R11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11">
-        <v>76.9748797434527</v>
-      </c>
-      <c r="E11">
-        <v>0.085515766969535</v>
-      </c>
-      <c r="F11">
-        <v>3.11063602351684</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>4.78888295029396</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>12.5494388027793</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1.20791020844468</v>
-      </c>
-      <c r="O11">
-        <v>0.138963121325494</v>
-      </c>
-      <c r="P11">
-        <v>1.13308391234634</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>4.34</v>
-      </c>
-      <c r="S11">
-        <v>0.007</v>
       </c>
       <c r="T11">
         <v>300</v>
@@ -8524,19 +8521,19 @@
         <v>900</v>
       </c>
       <c r="V11">
-        <v>1020</v>
+        <v>1090</v>
       </c>
       <c r="W11">
-        <v>0.971528639021171</v>
+        <v>0.972915709108933</v>
       </c>
       <c r="X11">
-        <v>0.0284713609788294</v>
+        <v>0.0270842908910666</v>
       </c>
       <c r="Y11">
-        <v>0.00694889011187967</v>
+        <v>0.00885469016241785</v>
       </c>
       <c r="Z11">
-        <v>0.00666008801407604</v>
+        <v>0.008854690162417838</v>
       </c>
       <c r="AA11" t="s">
         <v>56</v>
@@ -8546,59 +8543,59 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>76.9438448701072</v>
+      </c>
+      <c r="C12">
+        <v>0.133124692583271</v>
+      </c>
+      <c r="D12">
+        <v>3.16965680268094</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>4.76343532834393</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>12.4464028247851</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1.23172756929903</v>
+      </c>
+      <c r="M12">
+        <v>0.140993377177016</v>
+      </c>
+      <c r="N12">
+        <v>1.17080646457768</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>0.0123</v>
+      </c>
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="S12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12">
-        <v>76.9438448701072</v>
-      </c>
-      <c r="E12">
-        <v>0.133124692583271</v>
-      </c>
-      <c r="F12">
-        <v>3.16965680268094</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>4.76343532834393</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>12.4464028247851</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1.23172756929903</v>
-      </c>
-      <c r="O12">
-        <v>0.140993377177016</v>
-      </c>
-      <c r="P12">
-        <v>1.17080646457768</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>5.85</v>
-      </c>
-      <c r="S12">
-        <v>0.0123</v>
       </c>
       <c r="T12">
         <v>300</v>
@@ -8607,19 +8604,19 @@
         <v>900</v>
       </c>
       <c r="V12">
-        <v>1630</v>
+        <v>1780</v>
       </c>
       <c r="W12">
-        <v>0.970816471613654</v>
+        <v>0.973132721034933</v>
       </c>
       <c r="X12">
-        <v>0.0291835283863461</v>
+        <v>0.0268672789650666</v>
       </c>
       <c r="Y12">
-        <v>0.00258243924155838</v>
+        <v>0.00591552141542247</v>
       </c>
       <c r="Z12">
-        <v>0.002439432582167075</v>
+        <v>0.005915521415422469</v>
       </c>
       <c r="AA12" t="s">
         <v>56</v>
@@ -8629,59 +8626,59 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>77.18720482277639</v>
+      </c>
+      <c r="C13">
+        <v>0.119505939828248</v>
+      </c>
+      <c r="D13">
+        <v>3.16782734403283</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4.81407626970865</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>12.2295344248926</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1.1847733013638</v>
+      </c>
+      <c r="M13">
+        <v>0.138201136168266</v>
+      </c>
+      <c r="N13">
+        <v>1.15892356512203</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>5.7545705764358</v>
+      </c>
+      <c r="Q13">
+        <v>0.0106631828985553</v>
+      </c>
+      <c r="R13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13">
-        <v>77.18720482277639</v>
-      </c>
-      <c r="E13">
-        <v>0.119505939828248</v>
-      </c>
-      <c r="F13">
-        <v>3.16782734403283</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4.81407626970865</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>12.2295344248926</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1.1847733013638</v>
-      </c>
-      <c r="O13">
-        <v>0.138201136168266</v>
-      </c>
-      <c r="P13">
-        <v>1.15892356512203</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>5.7545705764358</v>
-      </c>
-      <c r="S13">
-        <v>0.0106631828985553</v>
       </c>
       <c r="T13">
         <v>300</v>
@@ -8690,19 +8687,19 @@
         <v>900</v>
       </c>
       <c r="V13">
-        <v>1580</v>
+        <v>1720</v>
       </c>
       <c r="W13">
-        <v>0.973227847320789</v>
+        <v>0.975859890544081</v>
       </c>
       <c r="X13">
-        <v>0.0267721526792109</v>
+        <v>0.0241401094559188</v>
       </c>
       <c r="Y13">
-        <v>0.000412392385051627</v>
+        <v>0.00808765212115037</v>
       </c>
       <c r="Z13">
-        <v>0.0003899128171887149</v>
+        <v>0.008087652121150367</v>
       </c>
       <c r="AA13" t="s">
         <v>56</v>
@@ -8712,59 +8709,59 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>75.4139659380119</v>
+      </c>
+      <c r="C14">
+        <v>0.09516411818348949</v>
+      </c>
+      <c r="D14">
+        <v>14.0776920173468</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.654991693057126</v>
+      </c>
+      <c r="H14">
+        <v>0.125882451591361</v>
+      </c>
+      <c r="I14">
+        <v>0.0120034926222446</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.636123687792963</v>
+      </c>
+      <c r="M14">
+        <v>3.70311026077796</v>
+      </c>
+      <c r="N14">
+        <v>5.12839160076096</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5.94375</v>
+      </c>
+      <c r="Q14">
+        <v>0.01</v>
+      </c>
+      <c r="R14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="S14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>75.4139659380119</v>
-      </c>
-      <c r="E14">
-        <v>0.09516411818348949</v>
-      </c>
-      <c r="F14">
-        <v>14.0776920173468</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.654991693057126</v>
-      </c>
-      <c r="J14">
-        <v>0.125882451591361</v>
-      </c>
-      <c r="K14">
-        <v>0.0120034926222446</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0.636123687792963</v>
-      </c>
-      <c r="O14">
-        <v>3.70311026077796</v>
-      </c>
-      <c r="P14">
-        <v>5.12839160076096</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5.94375</v>
-      </c>
-      <c r="S14">
-        <v>0.01</v>
       </c>
       <c r="T14">
         <v>300</v>
@@ -8783,59 +8780,59 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>76.61358570474</v>
+      </c>
+      <c r="C15">
+        <v>0.0958432095376958</v>
+      </c>
+      <c r="D15">
+        <v>13.4767620639456</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.620768528609716</v>
+      </c>
+      <c r="H15">
+        <v>0.113495070210069</v>
+      </c>
+      <c r="I15">
+        <v>0.0320690056690404</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.624350060794128</v>
+      </c>
+      <c r="M15">
+        <v>3.6769719537635</v>
+      </c>
+      <c r="N15">
+        <v>4.57979937724531</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>5.34</v>
+      </c>
+      <c r="Q15">
+        <v>0.008</v>
+      </c>
+      <c r="R15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15">
-        <v>76.61358570474</v>
-      </c>
-      <c r="E15">
-        <v>0.0958432095376958</v>
-      </c>
-      <c r="F15">
-        <v>13.4767620639456</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0.620768528609716</v>
-      </c>
-      <c r="J15">
-        <v>0.113495070210069</v>
-      </c>
-      <c r="K15">
-        <v>0.0320690056690404</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.624350060794128</v>
-      </c>
-      <c r="O15">
-        <v>3.6769719537635</v>
-      </c>
-      <c r="P15">
-        <v>4.57979937724531</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>5.34</v>
-      </c>
-      <c r="S15">
-        <v>0.008</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -8844,19 +8841,19 @@
         <v>900</v>
       </c>
       <c r="V15">
-        <v>1600</v>
+        <v>1730</v>
       </c>
       <c r="W15">
-        <v>0.947003542300958</v>
+        <v>0.951016786572314</v>
       </c>
       <c r="X15">
-        <v>0.052996457699042</v>
+        <v>0.048983213427686</v>
       </c>
       <c r="Y15">
-        <v>0.0023492284462377</v>
+        <v>0.00335004855562078</v>
       </c>
       <c r="Z15">
-        <v>0.00223349658279912</v>
+        <v>0.003350048555620779</v>
       </c>
       <c r="AA15" t="s">
         <v>56</v>
@@ -8866,59 +8863,59 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>48.03</v>
+      </c>
+      <c r="C16">
+        <v>2.84</v>
+      </c>
+      <c r="D16">
+        <v>18.12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>9.6</v>
+      </c>
+      <c r="H16">
+        <v>0.23</v>
+      </c>
+      <c r="I16">
+        <v>3.08</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.57</v>
+      </c>
+      <c r="M16">
+        <v>6.04</v>
+      </c>
+      <c r="N16">
+        <v>3.08</v>
+      </c>
+      <c r="O16">
+        <v>1.41</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>0.1298</v>
+      </c>
+      <c r="R16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16">
-        <v>48.03</v>
-      </c>
-      <c r="E16">
-        <v>2.84</v>
-      </c>
-      <c r="F16">
-        <v>18.12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>9.6</v>
-      </c>
-      <c r="J16">
-        <v>0.23</v>
-      </c>
-      <c r="K16">
-        <v>3.08</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>7.57</v>
-      </c>
-      <c r="O16">
-        <v>6.04</v>
-      </c>
-      <c r="P16">
-        <v>3.08</v>
-      </c>
-      <c r="Q16">
-        <v>1.41</v>
-      </c>
-      <c r="R16">
-        <v>1.42</v>
-      </c>
-      <c r="S16">
-        <v>0.1298</v>
       </c>
       <c r="T16">
         <v>1500</v>
@@ -8927,19 +8924,19 @@
         <v>1050</v>
       </c>
       <c r="V16">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="W16">
-        <v>0.224500549616884</v>
+        <v>0.228644415713756</v>
       </c>
       <c r="X16">
-        <v>0.775499450383116</v>
+        <v>0.771355584286244</v>
       </c>
       <c r="Y16">
-        <v>4.19480086802028e-05</v>
+        <v>0.00147492657477965</v>
       </c>
       <c r="Z16">
-        <v>4.130782008453284e-05</v>
+        <v>0.00147492657477965</v>
       </c>
       <c r="AA16" t="s">
         <v>56</v>
@@ -8949,59 +8946,59 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>52.98</v>
+      </c>
+      <c r="C17">
+        <v>2.18</v>
+      </c>
+      <c r="D17">
+        <v>20.49</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5.54</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.1</v>
+      </c>
+      <c r="M17">
+        <v>5.68</v>
+      </c>
+      <c r="N17">
+        <v>3.16</v>
+      </c>
+      <c r="O17">
+        <v>0.66</v>
+      </c>
+      <c r="P17">
+        <v>4.76</v>
+      </c>
+      <c r="Q17">
+        <v>0.3439</v>
+      </c>
+      <c r="R17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
         <v>47</v>
-      </c>
-      <c r="D17">
-        <v>52.98</v>
-      </c>
-      <c r="E17">
-        <v>2.18</v>
-      </c>
-      <c r="F17">
-        <v>20.49</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>5.54</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>7.1</v>
-      </c>
-      <c r="O17">
-        <v>5.68</v>
-      </c>
-      <c r="P17">
-        <v>3.16</v>
-      </c>
-      <c r="Q17">
-        <v>0.66</v>
-      </c>
-      <c r="R17">
-        <v>4.76</v>
-      </c>
-      <c r="S17">
-        <v>0.3439</v>
       </c>
       <c r="T17">
         <v>4000</v>
@@ -9010,19 +9007,19 @@
         <v>1000</v>
       </c>
       <c r="V17">
-        <v>4740</v>
+        <v>4910</v>
       </c>
       <c r="W17">
-        <v>0.441496429223007</v>
+        <v>0.458904496315431</v>
       </c>
       <c r="X17">
-        <v>0.558503570776993</v>
+        <v>0.541095503684569</v>
       </c>
       <c r="Y17">
-        <v>0.000345243695797992</v>
+        <v>0.00176716229182296</v>
       </c>
       <c r="Z17">
-        <v>0.0003285097382416988</v>
+        <v>0.001767162291822961</v>
       </c>
       <c r="AA17" t="s">
         <v>56</v>
@@ -9032,59 +9029,59 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>44.61</v>
+      </c>
+      <c r="C18">
+        <v>4.37</v>
+      </c>
+      <c r="D18">
+        <v>14.41</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>0.17</v>
+      </c>
+      <c r="I18">
+        <v>7.69</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11.55</v>
+      </c>
+      <c r="M18">
+        <v>3.93</v>
+      </c>
+      <c r="N18">
+        <v>1.74</v>
+      </c>
+      <c r="O18">
+        <v>0.92</v>
+      </c>
+      <c r="P18">
+        <v>2.9</v>
+      </c>
+      <c r="Q18">
+        <v>0.1131</v>
+      </c>
+      <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="S18" t="s">
         <v>48</v>
-      </c>
-      <c r="D18">
-        <v>44.61</v>
-      </c>
-      <c r="E18">
-        <v>4.37</v>
-      </c>
-      <c r="F18">
-        <v>14.41</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10.6</v>
-      </c>
-      <c r="J18">
-        <v>0.17</v>
-      </c>
-      <c r="K18">
-        <v>7.69</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>11.55</v>
-      </c>
-      <c r="O18">
-        <v>3.93</v>
-      </c>
-      <c r="P18">
-        <v>1.74</v>
-      </c>
-      <c r="Q18">
-        <v>0.92</v>
-      </c>
-      <c r="R18">
-        <v>2.9</v>
-      </c>
-      <c r="S18">
-        <v>0.1131</v>
       </c>
       <c r="T18">
         <v>1500</v>
@@ -9093,19 +9090,19 @@
         <v>1100</v>
       </c>
       <c r="V18">
-        <v>1530</v>
+        <v>1590</v>
       </c>
       <c r="W18">
-        <v>0.6732106044221819</v>
+        <v>0.679642799711047</v>
       </c>
       <c r="X18">
-        <v>0.326789395577818</v>
+        <v>0.320357200288953</v>
       </c>
       <c r="Y18">
-        <v>0.00326380207374009</v>
+        <v>0.00191408285739597</v>
       </c>
       <c r="Z18">
-        <v>0.003168644510446868</v>
+        <v>0.00191408285739597</v>
       </c>
       <c r="AA18" t="s">
         <v>56</v>

--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="65">
   <si>
     <t>CITATION</t>
   </si>
@@ -695,7 +695,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="T2">
         <v>62.5</v>
@@ -1890,7 +1890,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -3394,7 +3394,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -3409,7 +3409,7 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -3422,6 +3422,9 @@
       </c>
       <c r="Z2" t="s">
         <v>56</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -4847,7 +4850,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -4862,10 +4865,10 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.586163616167993</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.413836383832007</v>
       </c>
       <c r="X2" t="s">
         <v>56</v>
@@ -6201,7 +6204,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -6216,22 +6219,22 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W2">
         <v>925</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.469913142701622</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.530086857298378</v>
       </c>
       <c r="Z2">
-        <v>0.0689581288685595</v>
+        <v>0.000835660852316802</v>
       </c>
       <c r="AA2">
-        <v>0.06895812886855952</v>
+        <v>0.0008356608523168019</v>
       </c>
       <c r="AB2" t="s">
         <v>56</v>
@@ -7759,7 +7762,7 @@
         <v>0.4246947187776288</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002873020370883501</v>
       </c>
       <c r="R2" t="s">
         <v>37</v>
@@ -7774,19 +7777,19 @@
         <v>1299.094712370722</v>
       </c>
       <c r="V2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.493184396494459</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.506815603505541</v>
       </c>
       <c r="Y2">
-        <v>0.0777634607490745</v>
+        <v>0.000609818058643469</v>
       </c>
       <c r="Z2">
-        <v>0.07776346074907453</v>
+        <v>0.0006098180586434687</v>
       </c>
       <c r="AA2" t="s">
         <v>56</v>

--- a/manuscript/testsave.xlsx
+++ b/manuscript/testsave.xlsx
@@ -6317,10 +6317,10 @@
         <v>0.7844709533493121</v>
       </c>
       <c r="Z3">
-        <v>3.75646222415579e-05</v>
+        <v>3.75646222415579E-05</v>
       </c>
       <c r="AA3">
-        <v>3.756462224155789e-05</v>
+        <v>3.756462224155789E-05</v>
       </c>
       <c r="AB3" t="s">
         <v>56</v>
@@ -7435,10 +7435,10 @@
         <v>0.768292178983787</v>
       </c>
       <c r="Z16">
-        <v>9.309173835698601e-05</v>
+        <v>9.309173835698601E-05</v>
       </c>
       <c r="AA16">
-        <v>9.309173835698606e-05</v>
+        <v>9.309173835698606E-05</v>
       </c>
       <c r="AB16" t="s">
         <v>56</v>
